--- a/src/data/facts-and-figures.xlsx
+++ b/src/data/facts-and-figures.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ColbyPastre\Local Sites\tax-foundation-development-site\app\public\wp-content\themes\facts-and-figures-web\src\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31241269-302C-419E-BA85-B35A814390E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BB51C11-77E3-4382-A433-8C9D15D76316}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="120" windowWidth="29040" windowHeight="17640" firstSheet="18" activeTab="36" xr2:uid="{E1FAFE64-C91F-4801-9C00-8657359E225A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" firstSheet="18" activeTab="22" xr2:uid="{E1FAFE64-C91F-4801-9C00-8657359E225A}"/>
   </bookViews>
   <sheets>
     <sheet name="Table of Contents" sheetId="44" r:id="rId1"/>
@@ -96,7 +96,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3077" uniqueCount="708">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3076" uniqueCount="707">
   <si>
     <t>Table 1.</t>
   </si>
@@ -1131,9 +1131,6 @@
   </si>
   <si>
     <t>(a) California's cap-and-trade program and low-carbon fuels program add implied excise taxes of 23 cents and 18 cents, respectively.</t>
-  </si>
-  <si>
-    <t>In order to determine the the average tax rate on a gallon of fuel, rates may include any of the following: excise taxes, environmental fees, storage tank taxes, other fees or taxes, and general sales tax. In states where gasoline is subject to the general sales tax, or where the fuel tax is based on the average sale price, the average rate is sensitive to changes in the price of gasoline. States that fully or partially apply general sales taxes to gasoline are California, Connecticut, Illinois, Indiana, Michigan, and New York. D.C.’s rank does not affect states’ ranks, but the figure in parentheses indicates where it would rank if included.</t>
   </si>
   <si>
     <t>Table 23.</t>
@@ -2304,9 +2301,6 @@
     <t>(b) Illinois's rate does not include additional taxes levied by Cook, DuPage, Kane, Lake, and McHenry counties or the city of Chicago.</t>
   </si>
   <si>
-    <t xml:space="preserve">Note: Excise taxes are special taxes on specific goods or activities—such as gasoline, tobacco, or gambling—rather than general tax bases such as income or consumption. Excise taxes are often included in the final price of products and services, and are hidden to consumers. </t>
-  </si>
-  <si>
     <t>Sources: U.S. Energy Information Agency; state statutes; Tax Foundation calculations.</t>
   </si>
   <si>
@@ -2333,6 +2327,9 @@
   </si>
   <si>
     <t>(f) Nebraska's corporation occupation tax is due every other year. The maximum tax is $23,990 for domestic (Nebraska) corporations and $30,000 for foreign (out-of-state) corporations.</t>
+  </si>
+  <si>
+    <t>Note: Excise taxes are special taxes on specific goods or activities—such as gasoline, tobacco, or gambling—rather than general tax bases such as income or consumption. Excise taxes are often included in the final price of products and services, and are hidden to consumers. In order to determine the the average tax rate on a gallon of fuel, rates may include any of the following: excise taxes, environmental fees, storage tank taxes, other fees or taxes, and general sales tax. In states where gasoline is subject to the general sales tax, or where the fuel tax is based on the average sale price, the average rate is sensitive to changes in the price of gasoline. States that fully or partially apply general sales taxes to gasoline are California, Connecticut, Illinois, Indiana, Michigan, and New York. D.C.’s rank does not affect states’ ranks, but the figure in parentheses indicates where it would rank if included.</t>
   </si>
 </sst>
 </file>
@@ -3885,14 +3882,14 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4354,9 +4351,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -4394,7 +4391,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -4500,7 +4497,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -4642,7 +4639,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4679,39 +4676,39 @@
   <sheetData>
     <row r="1" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="441" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B1" s="441"/>
       <c r="C1" s="441"/>
     </row>
     <row r="2" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="442" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B2" s="442"/>
       <c r="C2" s="442"/>
     </row>
     <row r="3" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="443" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B3" s="444"/>
       <c r="C3" s="444"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="366" t="s">
+        <v>673</v>
+      </c>
+      <c r="B4" s="173" t="s">
         <v>674</v>
       </c>
-      <c r="B4" s="173" t="s">
+      <c r="C4" s="367" t="s">
         <v>675</v>
-      </c>
-      <c r="C4" s="367" t="s">
-        <v>676</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="366" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -4730,7 +4727,7 @@
         <v>2</v>
       </c>
       <c r="B7" s="372" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C7" s="377">
         <v>2022</v>
@@ -4741,7 +4738,7 @@
         <v>3</v>
       </c>
       <c r="B8" s="369" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C8" s="170">
         <v>2024</v>
@@ -4785,7 +4782,7 @@
         <v>7</v>
       </c>
       <c r="B12" s="304" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C12" s="168">
         <v>2021</v>
@@ -4830,7 +4827,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="366" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B17" s="369"/>
       <c r="C17" s="370"/>
@@ -4874,7 +4871,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="366" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B22" s="369"/>
       <c r="C22" s="370"/>
@@ -4895,7 +4892,7 @@
         <v>15</v>
       </c>
       <c r="B24" s="369" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="C24" s="170">
         <v>2022</v>
@@ -4929,7 +4926,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="366" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B28" s="369"/>
       <c r="C28" s="370"/>
@@ -4961,7 +4958,7 @@
         <v>20</v>
       </c>
       <c r="B31" s="376" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="C31" s="377">
         <v>2021</v>
@@ -4972,7 +4969,7 @@
         <v>21</v>
       </c>
       <c r="B32" s="369" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="C32" s="170">
         <v>2022</v>
@@ -4984,7 +4981,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="366" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="B34" s="369"/>
       <c r="C34" s="370"/>
@@ -5005,7 +5002,7 @@
         <v>23</v>
       </c>
       <c r="B36" s="369" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="C36" s="380">
         <v>2021</v>
@@ -5016,7 +5013,7 @@
         <v>24</v>
       </c>
       <c r="B37" s="374" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="C37" s="378">
         <v>2024</v>
@@ -5027,7 +5024,7 @@
         <v>25</v>
       </c>
       <c r="B38" s="369" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C38" s="381">
         <v>2024</v>
@@ -5038,7 +5035,7 @@
         <v>26</v>
       </c>
       <c r="B39" s="374" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C39" s="382">
         <v>2024</v>
@@ -5049,7 +5046,7 @@
         <v>27</v>
       </c>
       <c r="B40" s="369" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C40" s="381">
         <v>2024</v>
@@ -5060,7 +5057,7 @@
         <v>28</v>
       </c>
       <c r="B41" s="374" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C41" s="382">
         <v>2024</v>
@@ -5071,7 +5068,7 @@
         <v>29</v>
       </c>
       <c r="B42" s="369" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C42" s="381">
         <v>2024</v>
@@ -5082,7 +5079,7 @@
         <v>30</v>
       </c>
       <c r="B43" s="372" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C43" s="382">
         <v>2023</v>
@@ -5093,7 +5090,7 @@
         <v>31</v>
       </c>
       <c r="B44" s="304" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C44" s="381">
         <v>2024</v>
@@ -5104,7 +5101,7 @@
         <v>32</v>
       </c>
       <c r="B45" s="374" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="C45" s="379">
         <v>2021</v>
@@ -5116,7 +5113,7 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="366" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B47" s="369"/>
       <c r="C47" s="370"/>
@@ -5126,7 +5123,7 @@
         <v>33</v>
       </c>
       <c r="B48" s="374" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="C48" s="379">
         <v>2022</v>
@@ -5137,7 +5134,7 @@
         <v>34</v>
       </c>
       <c r="B49" s="369" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="C49" s="170">
         <v>2021</v>
@@ -5148,7 +5145,7 @@
         <v>35</v>
       </c>
       <c r="B50" s="374" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C50" s="377">
         <v>2024</v>
@@ -5160,7 +5157,7 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" s="56" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B52" s="369"/>
     </row>
@@ -5169,7 +5166,7 @@
         <v>36</v>
       </c>
       <c r="B53" s="374" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C53" s="377">
         <v>2024</v>
@@ -5180,7 +5177,7 @@
         <v>37</v>
       </c>
       <c r="B54" s="369" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C54" s="170">
         <v>2024</v>
@@ -5192,7 +5189,7 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" s="366" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B56" s="369"/>
       <c r="C56" s="370"/>
@@ -5202,7 +5199,7 @@
         <v>38</v>
       </c>
       <c r="B57" s="374" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="C57" s="377">
         <v>2022</v>
@@ -5213,7 +5210,7 @@
         <v>39</v>
       </c>
       <c r="B58" s="369" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="C58" s="170">
         <v>2021</v>
@@ -5224,7 +5221,7 @@
         <v>40</v>
       </c>
       <c r="B59" s="372" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="C59" s="377">
         <v>2023</v>
@@ -5236,7 +5233,7 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" s="366" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="B61" s="369"/>
       <c r="C61" s="370"/>
@@ -5246,7 +5243,7 @@
         <v>41</v>
       </c>
       <c r="B62" s="369" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="C62" s="170">
         <v>2022</v>
@@ -5257,10 +5254,10 @@
         <v>42</v>
       </c>
       <c r="B63" s="372" t="s">
+        <v>652</v>
+      </c>
+      <c r="C63" s="373" t="s">
         <v>653</v>
-      </c>
-      <c r="C63" s="373" t="s">
-        <v>654</v>
       </c>
     </row>
     <row r="66" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -5343,7 +5340,7 @@
         <v>107</v>
       </c>
       <c r="C5" s="81" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="D5" s="81" t="s">
         <v>108</v>
@@ -6244,7 +6241,7 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="B56" s="104"/>
       <c r="C56" s="104"/>
@@ -6447,7 +6444,7 @@
     </row>
     <row r="3" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="468" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="B3" s="469"/>
       <c r="C3" s="469"/>
@@ -26143,7 +26140,7 @@
       <c r="F1" s="170"/>
     </row>
     <row r="2" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="458" t="s">
+      <c r="A2" s="459" t="s">
         <v>197</v>
       </c>
       <c r="B2" s="444"/>
@@ -26311,7 +26308,7 @@
         <v>200</v>
       </c>
       <c r="C15" s="176" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="D15" s="180" t="s">
         <v>199</v>
@@ -26577,7 +26574,7 @@
         <v>201</v>
       </c>
       <c r="C34" s="176" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="D34" s="179" t="s">
         <v>199</v>
@@ -26759,7 +26756,7 @@
         <v>203</v>
       </c>
       <c r="C47" s="176" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="D47" s="180" t="s">
         <v>199</v>
@@ -26787,7 +26784,7 @@
         <v>205</v>
       </c>
       <c r="C49" s="176" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="D49" s="180" t="s">
         <v>199</v>
@@ -26843,7 +26840,7 @@
         <v>206</v>
       </c>
       <c r="C53" s="176" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="D53" s="180" t="s">
         <v>199</v>
@@ -26885,7 +26882,7 @@
         <v>207</v>
       </c>
       <c r="C56" s="176" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="D56" s="179" t="s">
         <v>199</v>
@@ -27033,7 +27030,7 @@
       <c r="E1" s="476"/>
     </row>
     <row r="2" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="458" t="s">
+      <c r="A2" s="459" t="s">
         <v>212</v>
       </c>
       <c r="B2" s="477"/>
@@ -27692,7 +27689,7 @@
         <v>3945.1352476816919</v>
       </c>
       <c r="D57" s="50" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
@@ -27823,7 +27820,7 @@
       <c r="E2" s="90"/>
     </row>
     <row r="3" spans="1:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="A3" s="458" t="s">
+      <c r="A3" s="459" t="s">
         <v>215</v>
       </c>
       <c r="B3" s="462"/>
@@ -27834,7 +27831,7 @@
     <row r="4" spans="1:10" ht="18" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="461" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="C4" s="462"/>
       <c r="D4" s="462"/>
@@ -29459,41 +29456,41 @@
       <c r="J104" s="4"/>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A105" s="459" t="s">
+      <c r="A105" s="457" t="s">
         <v>230</v>
       </c>
-      <c r="B105" s="459"/>
-      <c r="C105" s="459"/>
-      <c r="D105" s="459"/>
-      <c r="E105" s="459"/>
-      <c r="F105" s="459"/>
-      <c r="G105" s="459"/>
-      <c r="H105" s="459"/>
-      <c r="I105" s="459"/>
+      <c r="B105" s="457"/>
+      <c r="C105" s="457"/>
+      <c r="D105" s="457"/>
+      <c r="E105" s="457"/>
+      <c r="F105" s="457"/>
+      <c r="G105" s="457"/>
+      <c r="H105" s="457"/>
+      <c r="I105" s="457"/>
       <c r="J105" s="4"/>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A106" s="459"/>
-      <c r="B106" s="459"/>
-      <c r="C106" s="459"/>
-      <c r="D106" s="459"/>
-      <c r="E106" s="459"/>
-      <c r="F106" s="459"/>
-      <c r="G106" s="459"/>
-      <c r="H106" s="459"/>
-      <c r="I106" s="459"/>
+      <c r="A106" s="457"/>
+      <c r="B106" s="457"/>
+      <c r="C106" s="457"/>
+      <c r="D106" s="457"/>
+      <c r="E106" s="457"/>
+      <c r="F106" s="457"/>
+      <c r="G106" s="457"/>
+      <c r="H106" s="457"/>
+      <c r="I106" s="457"/>
       <c r="J106" s="4"/>
     </row>
     <row r="107" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="459"/>
-      <c r="B107" s="459"/>
-      <c r="C107" s="459"/>
-      <c r="D107" s="459"/>
-      <c r="E107" s="459"/>
-      <c r="F107" s="459"/>
-      <c r="G107" s="459"/>
-      <c r="H107" s="459"/>
-      <c r="I107" s="459"/>
+      <c r="A107" s="457"/>
+      <c r="B107" s="457"/>
+      <c r="C107" s="457"/>
+      <c r="D107" s="457"/>
+      <c r="E107" s="457"/>
+      <c r="F107" s="457"/>
+      <c r="G107" s="457"/>
+      <c r="H107" s="457"/>
+      <c r="I107" s="457"/>
       <c r="J107" s="4"/>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.25">
@@ -29588,7 +29585,7 @@
       <c r="D1" s="465"/>
     </row>
     <row r="2" spans="1:7" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="458" t="s">
+      <c r="A2" s="459" t="s">
         <v>233</v>
       </c>
       <c r="B2" s="462"/>
@@ -30434,7 +30431,7 @@
       <c r="H1" s="460"/>
     </row>
     <row r="2" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="458" t="s">
+      <c r="A2" s="459" t="s">
         <v>247</v>
       </c>
       <c r="B2" s="444"/>
@@ -31147,7 +31144,7 @@
         <v>1278.6777892928549</v>
       </c>
       <c r="E57" s="50" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
@@ -31259,11 +31256,11 @@
       <c r="C1" s="445"/>
     </row>
     <row r="2" spans="1:5" s="207" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="458" t="s">
+      <c r="A2" s="459" t="s">
         <v>255</v>
       </c>
-      <c r="B2" s="458"/>
-      <c r="C2" s="458"/>
+      <c r="B2" s="459"/>
+      <c r="C2" s="459"/>
       <c r="D2" s="208"/>
       <c r="E2" s="209"/>
     </row>
@@ -34104,7 +34101,7 @@
       <c r="D1" s="476"/>
     </row>
     <row r="2" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="458" t="s">
+      <c r="A2" s="459" t="s">
         <v>297</v>
       </c>
       <c r="B2" s="444"/>
@@ -35046,13 +35043,13 @@
       <c r="D1" s="445"/>
     </row>
     <row r="2" spans="1:6" s="207" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="458" t="s">
-        <v>666</v>
-      </c>
-      <c r="B2" s="458"/>
-      <c r="C2" s="458"/>
-      <c r="D2" s="458"/>
-      <c r="E2" s="458"/>
+      <c r="A2" s="459" t="s">
+        <v>665</v>
+      </c>
+      <c r="B2" s="459"/>
+      <c r="C2" s="459"/>
+      <c r="D2" s="459"/>
+      <c r="E2" s="459"/>
     </row>
     <row r="3" spans="1:6" s="207" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="57"/>
@@ -35688,7 +35685,7 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" s="4" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="D60" s="14"/>
       <c r="G60" s="46"/>
@@ -35841,20 +35838,20 @@
       <c r="D1" s="445"/>
     </row>
     <row r="2" spans="1:11" s="91" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="458" t="s">
+      <c r="A2" s="459" t="s">
         <v>312</v>
       </c>
-      <c r="B2" s="458"/>
-      <c r="C2" s="458"/>
-      <c r="D2" s="458"/>
-      <c r="E2" s="458"/>
+      <c r="B2" s="459"/>
+      <c r="C2" s="459"/>
+      <c r="D2" s="459"/>
+      <c r="E2" s="459"/>
     </row>
     <row r="3" spans="1:11" s="91" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="B3" s="458" t="s">
+      <c r="B3" s="459" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="458"/>
-      <c r="D3" s="458"/>
+      <c r="C3" s="459"/>
+      <c r="D3" s="459"/>
     </row>
     <row r="4" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="K4" s="99"/>
@@ -36582,10 +36579,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:R65"/>
+  <dimension ref="A1:R64"/>
   <sheetViews>
-    <sheetView topLeftCell="A38" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A62" sqref="A62:G62"/>
+    <sheetView tabSelected="1" topLeftCell="A38" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J62" sqref="J62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -36908,7 +36905,7 @@
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B20" s="11" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C20" s="396">
         <v>0.45400000000000001</v>
@@ -37574,12 +37571,12 @@
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61" s="4" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" ht="159.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="463" t="s">
-        <v>698</v>
+        <v>706</v>
       </c>
       <c r="B62" s="463"/>
       <c r="C62" s="463"/>
@@ -37588,27 +37585,15 @@
       <c r="F62" s="463"/>
       <c r="G62" s="463"/>
     </row>
-    <row r="63" spans="1:11" ht="101.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="455" t="s">
-        <v>335</v>
-      </c>
-      <c r="B63" s="455"/>
-      <c r="C63" s="455"/>
-      <c r="D63" s="455"/>
-      <c r="E63" s="455"/>
-      <c r="F63" s="455"/>
-      <c r="G63" s="455"/>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A65" s="4" t="s">
-        <v>699</v>
-      </c>
-      <c r="B65" s="21"/>
-      <c r="C65" s="21"/>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A64" s="4" t="s">
+        <v>697</v>
+      </c>
+      <c r="B64" s="21"/>
+      <c r="C64" s="21"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A63:G63"/>
+  <mergeCells count="5">
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="B3:F3"/>
@@ -37643,12 +37628,12 @@
     <row r="1" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B1" s="256"/>
       <c r="C1" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="79" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="209" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B2" s="209"/>
       <c r="C2" s="209"/>
@@ -37656,14 +37641,14 @@
       <c r="E2" s="209"/>
     </row>
     <row r="3" spans="1:10" s="79" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A3" s="458" t="s">
-        <v>338</v>
-      </c>
-      <c r="B3" s="458"/>
-      <c r="C3" s="458"/>
-      <c r="D3" s="458"/>
-      <c r="E3" s="458"/>
-      <c r="F3" s="458"/>
+      <c r="A3" s="459" t="s">
+        <v>337</v>
+      </c>
+      <c r="B3" s="459"/>
+      <c r="C3" s="459"/>
+      <c r="D3" s="459"/>
+      <c r="E3" s="459"/>
+      <c r="F3" s="459"/>
     </row>
     <row r="4" spans="1:10" s="78" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="B4" s="461" t="s">
@@ -37685,16 +37670,16 @@
         <v>3</v>
       </c>
       <c r="B6" s="411" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C6" s="411" t="s">
         <v>5</v>
       </c>
       <c r="D6" s="411" t="s">
+        <v>339</v>
+      </c>
+      <c r="E6" s="411" t="s">
         <v>340</v>
-      </c>
-      <c r="E6" s="411" t="s">
-        <v>341</v>
       </c>
       <c r="F6" s="411" t="s">
         <v>5</v>
@@ -38766,7 +38751,7 @@
     </row>
     <row r="62" spans="1:7" s="82" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="481" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B62" s="481"/>
       <c r="C62" s="481"/>
@@ -38839,33 +38824,33 @@
     <row r="1" spans="1:8" ht="18" x14ac:dyDescent="0.25">
       <c r="A1" s="207"/>
       <c r="C1" s="36" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="207" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2" s="459" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" s="207" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="458" t="s">
+      <c r="B2" s="459"/>
+      <c r="C2" s="459"/>
+      <c r="D2" s="459"/>
+    </row>
+    <row r="3" spans="1:8" s="207" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A3" s="459" t="s">
         <v>344</v>
       </c>
-      <c r="B2" s="458"/>
-      <c r="C2" s="458"/>
-      <c r="D2" s="458"/>
-    </row>
-    <row r="3" spans="1:8" s="207" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A3" s="458" t="s">
-        <v>345</v>
-      </c>
-      <c r="B3" s="458"/>
-      <c r="C3" s="458"/>
-      <c r="D3" s="458"/>
+      <c r="B3" s="459"/>
+      <c r="C3" s="459"/>
+      <c r="D3" s="459"/>
       <c r="H3" s="268"/>
     </row>
     <row r="4" spans="1:8" s="207" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A4" s="458" t="s">
+      <c r="A4" s="459" t="s">
         <v>216</v>
       </c>
-      <c r="B4" s="458"/>
-      <c r="C4" s="458"/>
-      <c r="D4" s="458"/>
+      <c r="B4" s="459"/>
+      <c r="C4" s="459"/>
+      <c r="D4" s="459"/>
     </row>
     <row r="5" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="B5" s="36"/>
@@ -38875,7 +38860,7 @@
         <v>3</v>
       </c>
       <c r="C6" s="35" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D6" s="35" t="s">
         <v>5</v>
@@ -38884,7 +38869,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B7" s="14" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C7" s="269">
         <v>1.0065999999999999</v>
@@ -39138,7 +39123,7 @@
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B30" s="11" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C30" s="271">
         <v>3.7320000000000002</v>
@@ -39446,7 +39431,7 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B58" s="11" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C58" s="276">
         <v>5.03</v>
@@ -39463,7 +39448,7 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" s="82" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B60" s="166"/>
       <c r="C60" s="166"/>
@@ -39471,7 +39456,7 @@
     </row>
     <row r="61" spans="1:5" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="481" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B61" s="481"/>
       <c r="C61" s="481"/>
@@ -39482,7 +39467,7 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" s="14" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
@@ -39528,22 +39513,22 @@
   <sheetData>
     <row r="1" spans="1:8" s="45" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="445" t="s">
+        <v>352</v>
+      </c>
+      <c r="C1" s="445"/>
+    </row>
+    <row r="2" spans="1:8" s="91" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2" s="459" t="s">
         <v>353</v>
       </c>
-      <c r="C1" s="445"/>
-    </row>
-    <row r="2" spans="1:8" s="91" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="458" t="s">
-        <v>354</v>
-      </c>
-      <c r="B2" s="458"/>
-      <c r="C2" s="458"/>
+      <c r="B2" s="459"/>
+      <c r="C2" s="459"/>
     </row>
     <row r="3" spans="1:8" s="91" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="B3" s="458" t="s">
+      <c r="B3" s="459" t="s">
         <v>216</v>
       </c>
-      <c r="C3" s="458"/>
+      <c r="C3" s="459"/>
     </row>
     <row r="4" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="H4" s="99"/>
@@ -39553,7 +39538,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="243" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D5" s="8"/>
     </row>
@@ -39562,7 +39547,7 @@
         <v>11</v>
       </c>
       <c r="C6" s="280" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -39570,7 +39555,7 @@
         <v>12</v>
       </c>
       <c r="C7" s="281" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
@@ -39578,7 +39563,7 @@
         <v>13</v>
       </c>
       <c r="C8" s="280" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D8" s="8"/>
     </row>
@@ -39587,7 +39572,7 @@
         <v>14</v>
       </c>
       <c r="C9" s="282" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D9" s="8"/>
     </row>
@@ -39596,16 +39581,16 @@
         <v>16</v>
       </c>
       <c r="C10" s="283" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D10" s="8"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B11" s="166" t="s">
+        <v>359</v>
+      </c>
+      <c r="C11" s="284" t="s">
         <v>360</v>
-      </c>
-      <c r="C11" s="284" t="s">
-        <v>361</v>
       </c>
       <c r="D11" s="8"/>
     </row>
@@ -39614,7 +39599,7 @@
         <v>20</v>
       </c>
       <c r="C12" s="285" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D12" s="8"/>
     </row>
@@ -39623,7 +39608,7 @@
         <v>22</v>
       </c>
       <c r="C13" s="284" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D13" s="8"/>
     </row>
@@ -39632,7 +39617,7 @@
         <v>23</v>
       </c>
       <c r="C14" s="283" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D14" s="8"/>
     </row>
@@ -39641,7 +39626,7 @@
         <v>24</v>
       </c>
       <c r="C15" s="284" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D15" s="8"/>
     </row>
@@ -39650,16 +39635,16 @@
         <v>25</v>
       </c>
       <c r="C16" s="285" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D16" s="8"/>
     </row>
     <row r="17" spans="2:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B17" s="166" t="s">
+        <v>365</v>
+      </c>
+      <c r="C17" s="286" t="s">
         <v>366</v>
-      </c>
-      <c r="C17" s="286" t="s">
-        <v>367</v>
       </c>
       <c r="D17" s="8"/>
     </row>
@@ -39668,16 +39653,16 @@
         <v>27</v>
       </c>
       <c r="C18" s="287" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D18" s="8"/>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B19" s="166" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C19" s="286" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D19" s="8"/>
     </row>
@@ -39686,7 +39671,7 @@
         <v>34</v>
       </c>
       <c r="C20" s="285" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D20" s="8"/>
     </row>
@@ -39695,7 +39680,7 @@
         <v>35</v>
       </c>
       <c r="C21" s="288" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D21" s="8"/>
     </row>
@@ -39704,7 +39689,7 @@
         <v>36</v>
       </c>
       <c r="C22" s="280" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D22" s="8"/>
     </row>
@@ -39713,7 +39698,7 @@
         <v>37</v>
       </c>
       <c r="C23" s="286" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D23" s="8"/>
     </row>
@@ -39722,7 +39707,7 @@
         <v>38</v>
       </c>
       <c r="C24" s="287" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D24" s="8"/>
     </row>
@@ -39731,7 +39716,7 @@
         <v>39</v>
       </c>
       <c r="C25" s="286" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D25" s="8"/>
     </row>
@@ -39740,7 +39725,7 @@
         <v>41</v>
       </c>
       <c r="C26" s="285" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D26" s="8"/>
     </row>
@@ -39749,7 +39734,7 @@
         <v>43</v>
       </c>
       <c r="C27" s="288" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D27" s="8"/>
     </row>
@@ -39758,7 +39743,7 @@
         <v>44</v>
       </c>
       <c r="C28" s="285" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D28" s="8"/>
     </row>
@@ -39767,7 +39752,7 @@
         <v>50</v>
       </c>
       <c r="C29" s="284" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D29" s="8"/>
     </row>
@@ -39776,7 +39761,7 @@
         <v>51</v>
       </c>
       <c r="C30" s="287" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D30" s="8"/>
     </row>
@@ -39785,7 +39770,7 @@
         <v>52</v>
       </c>
       <c r="C31" s="286" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D31" s="8"/>
     </row>
@@ -39794,7 +39779,7 @@
         <v>53</v>
       </c>
       <c r="C32" s="280" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D32" s="8"/>
     </row>
@@ -39803,7 +39788,7 @@
         <v>54</v>
       </c>
       <c r="C33" s="288" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D33" s="8"/>
     </row>
@@ -39812,7 +39797,7 @@
         <v>55</v>
       </c>
       <c r="C34" s="285" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D34" s="8"/>
     </row>
@@ -39821,7 +39806,7 @@
         <v>56</v>
       </c>
       <c r="C35" s="284" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D35" s="8"/>
     </row>
@@ -39830,7 +39815,7 @@
         <v>64</v>
       </c>
       <c r="C36" s="287" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -39841,7 +39826,7 @@
     </row>
     <row r="39" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="455" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B39" s="455"/>
       <c r="C39" s="455"/>
@@ -39864,7 +39849,7 @@
     </row>
     <row r="42" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="455" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B42" s="455"/>
       <c r="C42" s="455"/>
@@ -39882,7 +39867,7 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B44" s="20"/>
       <c r="C44" s="20"/>
@@ -39944,22 +39929,22 @@
   <sheetData>
     <row r="1" spans="1:9" s="45" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="445" t="s">
+        <v>387</v>
+      </c>
+      <c r="C1" s="445"/>
+    </row>
+    <row r="2" spans="1:9" s="91" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2" s="459" t="s">
         <v>388</v>
       </c>
-      <c r="C1" s="445"/>
-    </row>
-    <row r="2" spans="1:9" s="91" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="458" t="s">
-        <v>389</v>
-      </c>
-      <c r="B2" s="458"/>
-      <c r="C2" s="458"/>
+      <c r="B2" s="459"/>
+      <c r="C2" s="459"/>
     </row>
     <row r="3" spans="1:9" s="91" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="B3" s="458" t="s">
+      <c r="B3" s="459" t="s">
         <v>216</v>
       </c>
-      <c r="C3" s="458"/>
+      <c r="C3" s="459"/>
     </row>
     <row r="4" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A4"/>
@@ -39977,7 +39962,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="98" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="43.5" x14ac:dyDescent="0.25">
@@ -39986,7 +39971,7 @@
         <v>330</v>
       </c>
       <c r="C6" s="290" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D6"/>
     </row>
@@ -39996,7 +39981,7 @@
         <v>9</v>
       </c>
       <c r="C7" s="242" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D7"/>
     </row>
@@ -40006,7 +39991,7 @@
         <v>11</v>
       </c>
       <c r="C8" s="290" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="D8"/>
     </row>
@@ -40016,7 +40001,7 @@
         <v>12</v>
       </c>
       <c r="C9" s="291" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D9"/>
     </row>
@@ -40026,17 +40011,17 @@
         <v>13</v>
       </c>
       <c r="C10" s="292" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D10"/>
     </row>
     <row r="11" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11"/>
       <c r="B11" s="279" t="s">
+        <v>393</v>
+      </c>
+      <c r="C11" s="292" t="s">
         <v>394</v>
-      </c>
-      <c r="C11" s="292" t="s">
-        <v>395</v>
       </c>
       <c r="D11"/>
     </row>
@@ -40046,7 +40031,7 @@
         <v>19</v>
       </c>
       <c r="C12" s="293" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D12"/>
     </row>
@@ -40056,17 +40041,17 @@
         <v>25</v>
       </c>
       <c r="C13" s="290" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D13" s="16"/>
     </row>
     <row r="14" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14"/>
       <c r="B14" s="279" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C14" s="290" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D14" s="16"/>
     </row>
@@ -40076,7 +40061,7 @@
         <v>27</v>
       </c>
       <c r="C15" s="26" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D15"/>
       <c r="E15"/>
@@ -40090,7 +40075,7 @@
         <v>28</v>
       </c>
       <c r="C16" s="296" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D16"/>
       <c r="E16"/>
@@ -40105,7 +40090,7 @@
         <v>31</v>
       </c>
       <c r="C17" s="298" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D17"/>
       <c r="E17"/>
@@ -40120,7 +40105,7 @@
         <v>32</v>
       </c>
       <c r="C18" s="296" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D18"/>
       <c r="E18"/>
@@ -40135,7 +40120,7 @@
         <v>34</v>
       </c>
       <c r="C19" s="291" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D19"/>
       <c r="E19"/>
@@ -40150,7 +40135,7 @@
         <v>36</v>
       </c>
       <c r="C20" s="292" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D20"/>
       <c r="E20"/>
@@ -40165,7 +40150,7 @@
         <v>37</v>
       </c>
       <c r="C21" s="291" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D21"/>
       <c r="E21"/>
@@ -40177,10 +40162,10 @@
     <row r="22" spans="1:9" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22"/>
       <c r="B22" s="299" t="s">
+        <v>405</v>
+      </c>
+      <c r="C22" s="290" t="s">
         <v>406</v>
-      </c>
-      <c r="C22" s="290" t="s">
-        <v>407</v>
       </c>
       <c r="D22"/>
       <c r="E22"/>
@@ -40195,7 +40180,7 @@
         <v>43</v>
       </c>
       <c r="C23" s="26" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D23"/>
       <c r="E23"/>
@@ -40210,7 +40195,7 @@
         <v>45</v>
       </c>
       <c r="C24" s="299" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D24"/>
       <c r="E24"/>
@@ -40222,10 +40207,10 @@
     <row r="25" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A25"/>
       <c r="B25" s="294" t="s">
+        <v>408</v>
+      </c>
+      <c r="C25" s="4" t="s">
         <v>409</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>410</v>
       </c>
       <c r="D25"/>
       <c r="E25"/>
@@ -40240,7 +40225,7 @@
         <v>268</v>
       </c>
       <c r="C26" s="61" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D26"/>
       <c r="E26"/>
@@ -40254,12 +40239,12 @@
         <v>53</v>
       </c>
       <c r="C27" s="26" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B30" s="20"/>
       <c r="C30" s="20"/>
@@ -40270,7 +40255,7 @@
     </row>
     <row r="32" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="455" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="B32" s="455"/>
       <c r="C32" s="455"/>
@@ -40317,7 +40302,7 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
   </sheetData>
@@ -40353,14 +40338,14 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="B1" s="445" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C1" s="445"/>
       <c r="D1" s="445"/>
     </row>
     <row r="2" spans="1:4" s="207" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="461" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B2" s="461"/>
       <c r="C2" s="461"/>
@@ -40368,7 +40353,7 @@
     </row>
     <row r="3" spans="1:4" s="207" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="461" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B3" s="461"/>
       <c r="C3" s="461"/>
@@ -40376,7 +40361,7 @@
     </row>
     <row r="4" spans="1:4" s="207" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A4" s="461" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B4" s="461"/>
       <c r="C4" s="461"/>
@@ -40387,7 +40372,7 @@
         <v>3</v>
       </c>
       <c r="C6" s="211" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D6" s="211" t="s">
         <v>5</v>
@@ -40395,7 +40380,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="14" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C7" s="387">
         <v>13.5</v>
@@ -40404,7 +40389,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B8" s="11" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C8" s="394">
         <v>21.6745478677108</v>
@@ -40415,7 +40400,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B9" s="14" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C9" s="387">
         <v>12.8</v>
@@ -40437,7 +40422,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B11" s="14" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C11" s="387">
         <v>8.0141202785390657</v>
@@ -40492,7 +40477,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B16" s="11" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C16" s="394">
         <v>6.5</v>
@@ -40503,7 +40488,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B17" s="14" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C17" s="387">
         <v>3.7854125342579832</v>
@@ -40525,7 +40510,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B19" s="14" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C19" s="387">
         <v>12.130727446021201</v>
@@ -40536,7 +40521,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B20" s="11" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C20" s="394">
         <v>8.5500000000000007</v>
@@ -40559,7 +40544,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B22" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C22" s="394">
         <v>14.082723979165101</v>
@@ -40581,7 +40566,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B24" s="11" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C24" s="394">
         <v>9.4600000000000009</v>
@@ -40592,7 +40577,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B25" s="14" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C25" s="387">
         <v>3.0283300274063869</v>
@@ -40603,7 +40588,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B26" s="11" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C26" s="394">
         <v>11.9443797509508</v>
@@ -40614,7 +40599,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B27" s="14" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C27" s="387">
         <v>5.46</v>
@@ -40625,7 +40610,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B28" s="11" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C28" s="394">
         <v>4.05</v>
@@ -40636,7 +40621,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B29" s="14" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C29" s="387">
         <v>13.548772342119999</v>
@@ -40647,7 +40632,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B30" s="11" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C30" s="394">
         <v>8.70047216712344</v>
@@ -40658,7 +40643,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B31" s="14" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C31" s="387">
         <v>8.4921569860293999</v>
@@ -40702,7 +40687,7 @@
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B35" s="14" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C35" s="387">
         <v>3.6</v>
@@ -40746,7 +40731,7 @@
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B39" s="14" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C39" s="387">
         <v>6.44</v>
@@ -40757,7 +40742,7 @@
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B40" s="11" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C40" s="394">
         <v>16.6233985947853</v>
@@ -40768,7 +40753,7 @@
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B41" s="14" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C41" s="387">
         <v>4.68</v>
@@ -40779,7 +40764,7 @@
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B42" s="11" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C42" s="394">
         <v>11.3675692450129</v>
@@ -40812,7 +40797,7 @@
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B45" s="14" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C45" s="387">
         <v>7.39044207306784</v>
@@ -40823,7 +40808,7 @@
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B46" s="11" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C46" s="394">
         <v>5.4</v>
@@ -40845,7 +40830,7 @@
     </row>
     <row r="48" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B48" s="11" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C48" s="394">
         <v>4.87</v>
@@ -40856,7 +40841,7 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B49" s="14" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C49" s="387">
         <v>4.4630902089043003</v>
@@ -40878,7 +40863,7 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B51" s="14" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C51" s="387">
         <v>15.9007696317664</v>
@@ -40889,7 +40874,7 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B52" s="11" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C52" s="394">
         <v>8.3710612567498295</v>
@@ -40911,7 +40896,7 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B54" s="11" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C54" s="394">
         <v>36.549999999999997</v>
@@ -40922,7 +40907,7 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B55" s="14" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C55" s="387">
         <v>8.3002398191013302</v>
@@ -40955,7 +40940,7 @@
     </row>
     <row r="58" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B58" s="11" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C58" s="394">
         <v>6.6800000000000006</v>
@@ -40970,7 +40955,7 @@
     </row>
     <row r="60" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="481" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B60" s="481"/>
       <c r="C60" s="481"/>
@@ -40978,7 +40963,7 @@
     </row>
     <row r="61" spans="1:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="481" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B61" s="481"/>
       <c r="C61" s="481"/>
@@ -40986,7 +40971,7 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" s="487" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B62" s="487"/>
       <c r="C62" s="487"/>
@@ -40994,7 +40979,7 @@
     </row>
     <row r="63" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="487" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B63" s="487"/>
       <c r="C63" s="487"/>
@@ -41002,7 +40987,7 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" s="487" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B64" s="487"/>
       <c r="C64" s="487"/>
@@ -41010,7 +40995,7 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" s="487" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B65" s="487"/>
       <c r="C65" s="487"/>
@@ -41018,7 +41003,7 @@
     </row>
     <row r="67" spans="1:4" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="455" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="B67" s="455"/>
       <c r="C67" s="455"/>
@@ -41050,7 +41035,7 @@
     </row>
     <row r="72" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="4" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
@@ -41061,17 +41046,17 @@
     <row r="83" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A62:D62"/>
-    <mergeCell ref="A63:D63"/>
-    <mergeCell ref="A64:D64"/>
-    <mergeCell ref="A65:D65"/>
-    <mergeCell ref="A67:D71"/>
     <mergeCell ref="A61:D61"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="A4:D4"/>
     <mergeCell ref="A60:D60"/>
+    <mergeCell ref="A62:D62"/>
+    <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A64:D64"/>
+    <mergeCell ref="A65:D65"/>
+    <mergeCell ref="A67:D71"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="62" orientation="portrait" r:id="rId1"/>
@@ -41100,14 +41085,14 @@
   <sheetData>
     <row r="1" spans="1:4" s="45" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B1" s="445" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C1" s="445"/>
       <c r="D1" s="445"/>
     </row>
     <row r="2" spans="1:4" s="91" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="461" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B2" s="461"/>
       <c r="C2" s="461"/>
@@ -41115,7 +41100,7 @@
     </row>
     <row r="3" spans="1:4" s="91" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="461" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B3" s="461"/>
       <c r="C3" s="461"/>
@@ -41139,7 +41124,7 @@
         <v>3</v>
       </c>
       <c r="C6" s="211" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D6" s="211" t="s">
         <v>5</v>
@@ -41147,7 +41132,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="14" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C7" s="387">
         <v>1.07</v>
@@ -41156,7 +41141,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B8" s="11" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C8" s="394">
         <v>1.7</v>
@@ -41178,7 +41163,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B10" s="11" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C10" s="394">
         <v>0.84</v>
@@ -41189,7 +41174,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B11" s="14" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C11" s="387">
         <v>1.4110300696347666</v>
@@ -41211,7 +41196,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B13" s="14" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C13" s="387">
         <v>0.31532486410368998</v>
@@ -41255,7 +41240,7 @@
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B17" s="14" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C17" s="387">
         <v>1.5141650137031935</v>
@@ -41277,7 +41262,7 @@
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B19" s="14" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C19" s="387">
         <v>0.45</v>
@@ -41288,7 +41273,7 @@
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B20" s="11" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C20" s="394">
         <v>1.39</v>
@@ -41299,7 +41284,7 @@
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B21" s="14" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C21" s="387">
         <v>0.47</v>
@@ -41310,7 +41295,7 @@
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B22" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C22" s="394">
         <v>1.75</v>
@@ -41321,7 +41306,7 @@
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B23" s="14" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C23" s="387">
         <v>0.3</v>
@@ -41332,7 +41317,7 @@
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B24" s="11" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C24" s="394">
         <v>3.58</v>
@@ -41343,7 +41328,7 @@
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B25" s="14" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C25" s="387">
         <v>0.75708250685159673</v>
@@ -41354,7 +41339,7 @@
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B26" s="11" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C26" s="394">
         <v>0.6</v>
@@ -41365,7 +41350,7 @@
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B27" s="14" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C27" s="387">
         <v>1.6400000000000001</v>
@@ -41376,7 +41361,7 @@
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B28" s="11" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C28" s="394">
         <v>0.55000000000000004</v>
@@ -41387,7 +41372,7 @@
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B29" s="14" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C29" s="387">
         <v>0.51</v>
@@ -41398,7 +41383,7 @@
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B30" s="11" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C30" s="394">
         <v>1.2404721671234398</v>
@@ -41409,7 +41394,7 @@
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B31" s="14" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C31" s="412">
         <v>0.35</v>
@@ -41442,7 +41427,7 @@
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B34" s="11" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C34" s="394">
         <v>0.95</v>
@@ -41464,7 +41449,7 @@
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B36" s="11" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C36" s="413" t="s">
         <v>199</v>
@@ -41475,7 +41460,7 @@
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B37" s="14" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C37" s="387">
         <v>0.875</v>
@@ -41508,7 +41493,7 @@
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B40" s="11" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C40" s="394">
         <v>0.99707766152355282</v>
@@ -41530,7 +41515,7 @@
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B42" s="11" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C42" s="394">
         <v>0.32</v>
@@ -41541,7 +41526,7 @@
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B43" s="14" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C43" s="387">
         <v>0.72</v>
@@ -41563,7 +41548,7 @@
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B45" s="14" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C45" s="412" t="s">
         <v>199</v>
@@ -41574,7 +41559,7 @@
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B46" s="11" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C46" s="394">
         <v>1.4</v>
@@ -41585,7 +41570,7 @@
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B47" s="14" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C47" s="387">
         <v>1.08</v>
@@ -41596,7 +41581,7 @@
     </row>
     <row r="48" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B48" s="11" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C48" s="394">
         <v>1.4100000000000001</v>
@@ -41629,7 +41614,7 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B51" s="14" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C51" s="412" t="s">
         <v>199</v>
@@ -41640,7 +41625,7 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B52" s="11" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C52" s="394">
         <v>0.55000000000000004</v>
@@ -41673,7 +41658,7 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B55" s="14" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C55" s="387">
         <v>1</v>
@@ -41684,7 +41669,7 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B56" s="11" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C56" s="394">
         <v>0.25002649788773978</v>
@@ -41695,7 +41680,7 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B57" s="14" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C57" s="412">
         <v>0.28000000000000003</v>
@@ -41706,7 +41691,7 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B58" s="11" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C58" s="394">
         <v>2.0699999999999998</v>
@@ -41717,32 +41702,32 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" s="4" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="14" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B61" s="14"/>
     </row>
     <row r="62" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="14" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B62" s="14"/>
       <c r="D62" s="4"/>
     </row>
     <row r="63" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="14" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B63" s="14"/>
       <c r="D63" s="4"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" s="166" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B64" s="166"/>
       <c r="C64" s="166"/>
@@ -41755,7 +41740,7 @@
     </row>
     <row r="66" spans="1:4" ht="106.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="451" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="B66" s="451"/>
       <c r="C66" s="451"/>
@@ -41769,7 +41754,7 @@
     </row>
     <row r="68" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="14" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B68" s="14"/>
     </row>
@@ -42752,7 +42737,7 @@
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" s="14" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B61" s="14"/>
       <c r="C61" s="14"/>
@@ -42808,33 +42793,33 @@
     <row r="1" spans="1:4" s="45" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A1" s="91"/>
       <c r="B1" s="489" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C1" s="489"/>
       <c r="D1" s="489"/>
     </row>
     <row r="2" spans="1:4" s="91" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="458" t="s">
-        <v>491</v>
-      </c>
-      <c r="B2" s="458"/>
-      <c r="C2" s="458"/>
-      <c r="D2" s="458"/>
+      <c r="A2" s="459" t="s">
+        <v>490</v>
+      </c>
+      <c r="B2" s="459"/>
+      <c r="C2" s="459"/>
+      <c r="D2" s="459"/>
     </row>
     <row r="3" spans="1:4" s="91" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="B3" s="458" t="s">
-        <v>458</v>
-      </c>
-      <c r="C3" s="458"/>
-      <c r="D3" s="458"/>
+      <c r="B3" s="459" t="s">
+        <v>457</v>
+      </c>
+      <c r="C3" s="459"/>
+      <c r="D3" s="459"/>
     </row>
     <row r="4" spans="1:4" s="91" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A4" s="458" t="s">
+      <c r="A4" s="459" t="s">
         <v>216</v>
       </c>
-      <c r="B4" s="458"/>
-      <c r="C4" s="458"/>
-      <c r="D4" s="458"/>
+      <c r="B4" s="459"/>
+      <c r="C4" s="459"/>
+      <c r="D4" s="459"/>
     </row>
     <row r="5" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="B5" s="36"/>
@@ -42844,7 +42829,7 @@
         <v>3</v>
       </c>
       <c r="C6" s="35" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D6" s="35" t="s">
         <v>5</v>
@@ -42852,7 +42837,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="14" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C7" s="387">
         <v>0.58064516129032262</v>
@@ -42861,7 +42846,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B8" s="11" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C8" s="394">
         <v>0.53333333333333333</v>
@@ -42894,7 +42879,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B11" s="14" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C11" s="387">
         <v>0.35218749999999999</v>
@@ -42949,7 +42934,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B16" s="11" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C16" s="394">
         <v>0.48</v>
@@ -42960,7 +42945,7 @@
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B17" s="14" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C17" s="387">
         <v>0.48</v>
@@ -42971,7 +42956,7 @@
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B18" s="11" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C18" s="394">
         <v>0.93</v>
@@ -42982,7 +42967,7 @@
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B19" s="14" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C19" s="387">
         <v>0.15</v>
@@ -43015,7 +43000,7 @@
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B22" s="11" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C22" s="394">
         <v>0.19</v>
@@ -43037,7 +43022,7 @@
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B24" s="11" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C24" s="394">
         <v>0.9306451612903226</v>
@@ -43048,7 +43033,7 @@
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B25" s="14" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C25" s="387">
         <v>0.40322580645161288</v>
@@ -43103,7 +43088,7 @@
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B30" s="11" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C30" s="394">
         <v>0.47483870967741937</v>
@@ -43213,7 +43198,7 @@
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B40" s="11" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C40" s="394">
         <v>0.61709999999999998</v>
@@ -43224,7 +43209,7 @@
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B41" s="14" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C41" s="387">
         <v>0.4</v>
@@ -43235,7 +43220,7 @@
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B42" s="11" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C42" s="394">
         <v>0.1792</v>
@@ -43246,7 +43231,7 @@
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B43" s="14" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C43" s="387">
         <v>0.40322580645161288</v>
@@ -43312,7 +43297,7 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B49" s="14" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C49" s="387">
         <v>1.2867741935483872</v>
@@ -43323,7 +43308,7 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B50" s="11" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C50" s="394">
         <v>0.193548</v>
@@ -43334,7 +43319,7 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B51" s="14" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C51" s="387">
         <v>0.41290322580645161</v>
@@ -43356,7 +43341,7 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B53" s="14" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C53" s="387">
         <v>0.25645161290322582</v>
@@ -43367,7 +43352,7 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B54" s="11" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C54" s="394">
         <v>0.26064516129032256</v>
@@ -43389,7 +43374,7 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B56" s="11" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C56" s="394">
         <v>6.4516129032258063E-2</v>
@@ -43411,7 +43396,7 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B58" s="11" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C58" s="394">
         <v>0.78999999999999992</v>
@@ -43422,7 +43407,7 @@
     </row>
     <row r="60" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="14" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B60" s="40"/>
       <c r="C60" s="40"/>
@@ -43430,7 +43415,7 @@
     </row>
     <row r="61" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="14" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B61" s="302"/>
       <c r="C61" s="302"/>
@@ -43438,14 +43423,14 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" s="14" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B62" s="14"/>
       <c r="D62" s="4"/>
     </row>
     <row r="63" spans="1:4" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="451" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B63" s="451"/>
       <c r="C63" s="451"/>
@@ -43453,14 +43438,14 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" s="14" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B64" s="14"/>
       <c r="D64" s="4"/>
     </row>
     <row r="65" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="450" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="B65" s="450"/>
       <c r="C65" s="450"/>
@@ -43510,7 +43495,7 @@
     </row>
     <row r="72" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="14" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B72" s="75"/>
       <c r="C72" s="75"/>
@@ -43566,21 +43551,21 @@
     <row r="1" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B1" s="256"/>
       <c r="C1" s="1" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" s="79" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2" s="459" t="s">
         <v>518</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" s="79" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="458" t="s">
-        <v>519</v>
-      </c>
-      <c r="B2" s="458"/>
-      <c r="C2" s="458"/>
-      <c r="D2" s="458"/>
-      <c r="E2" s="458"/>
+      <c r="B2" s="459"/>
+      <c r="C2" s="459"/>
+      <c r="D2" s="459"/>
+      <c r="E2" s="459"/>
     </row>
     <row r="3" spans="1:10" s="78" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="B3" s="461" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="C3" s="461"/>
       <c r="D3" s="461"/>
@@ -43598,7 +43583,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="240" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="D5" s="35" t="s">
         <v>5</v>
@@ -43609,7 +43594,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B6" s="11" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C6" s="218">
         <v>0.10829999999999999</v>
@@ -44425,7 +44410,7 @@
         <v>0.12199074074074075</v>
       </c>
       <c r="D57" s="117" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="F57" s="14"/>
       <c r="G57" s="82"/>
@@ -44440,7 +44425,7 @@
     </row>
     <row r="59" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="82" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B59" s="219"/>
       <c r="C59" s="219"/>
@@ -44448,7 +44433,7 @@
     </row>
     <row r="60" spans="1:10" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="455" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B60" s="455"/>
       <c r="C60" s="455"/>
@@ -44464,7 +44449,7 @@
     </row>
     <row r="62" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="451" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B62" s="451"/>
       <c r="C62" s="451"/>
@@ -44521,19 +44506,19 @@
   <sheetData>
     <row r="1" spans="2:8" s="45" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="C1" s="445" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="D1" s="445"/>
       <c r="E1" s="445"/>
     </row>
     <row r="2" spans="2:8" s="207" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="B2" s="458" t="s">
-        <v>524</v>
-      </c>
-      <c r="C2" s="458"/>
-      <c r="D2" s="458"/>
-      <c r="E2" s="458"/>
-      <c r="F2" s="458"/>
+      <c r="B2" s="459" t="s">
+        <v>523</v>
+      </c>
+      <c r="C2" s="459"/>
+      <c r="D2" s="459"/>
+      <c r="E2" s="459"/>
+      <c r="F2" s="459"/>
       <c r="G2" s="209"/>
     </row>
     <row r="3" spans="2:8" s="207" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -44559,16 +44544,16 @@
         <v>3</v>
       </c>
       <c r="C5" s="240" t="s">
+        <v>524</v>
+      </c>
+      <c r="D5" s="240" t="s">
         <v>525</v>
       </c>
-      <c r="D5" s="240" t="s">
+      <c r="E5" s="240" t="s">
         <v>526</v>
       </c>
-      <c r="E5" s="240" t="s">
-        <v>527</v>
-      </c>
       <c r="F5" s="240" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.2">
@@ -44582,10 +44567,10 @@
         <v>0.03</v>
       </c>
       <c r="E6" s="97" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="F6" s="97" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.2">
@@ -44613,13 +44598,13 @@
         <v>5.6000000000000001E-2</v>
       </c>
       <c r="D8" s="310" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="E8" s="97" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="F8" s="97" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="H8" s="96"/>
     </row>
@@ -44634,10 +44619,10 @@
         <v>1.25E-3</v>
       </c>
       <c r="E9" s="92" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="F9" s="92" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.2">
@@ -44648,13 +44633,13 @@
         <v>7.2499999999999995E-2</v>
       </c>
       <c r="D10" s="310" t="s">
+        <v>528</v>
+      </c>
+      <c r="E10" s="97" t="s">
+        <v>527</v>
+      </c>
+      <c r="F10" s="97" t="s">
         <v>529</v>
-      </c>
-      <c r="E10" s="97" t="s">
-        <v>528</v>
-      </c>
-      <c r="F10" s="97" t="s">
-        <v>530</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.2">
@@ -44665,13 +44650,13 @@
         <v>2.9000000000000001E-2</v>
       </c>
       <c r="D11" s="315" t="s">
+        <v>528</v>
+      </c>
+      <c r="E11" s="92" t="s">
         <v>529</v>
       </c>
-      <c r="E11" s="92" t="s">
-        <v>530</v>
-      </c>
       <c r="F11" s="92" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.2">
@@ -44682,13 +44667,13 @@
         <v>6.3500000000000001E-2</v>
       </c>
       <c r="D12" s="310" t="s">
+        <v>528</v>
+      </c>
+      <c r="E12" s="97" t="s">
         <v>529</v>
       </c>
-      <c r="E12" s="97" t="s">
-        <v>530</v>
-      </c>
       <c r="F12" s="97" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="H12" s="96"/>
     </row>
@@ -44717,13 +44702,13 @@
         <v>0.06</v>
       </c>
       <c r="D14" s="310" t="s">
+        <v>528</v>
+      </c>
+      <c r="E14" s="97" t="s">
         <v>529</v>
       </c>
-      <c r="E14" s="97" t="s">
-        <v>530</v>
-      </c>
       <c r="F14" s="97" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.2">
@@ -44734,13 +44719,13 @@
         <v>0.04</v>
       </c>
       <c r="D15" s="315" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="E15" s="92" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="F15" s="92" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.2">
@@ -44751,13 +44736,13 @@
         <v>0.04</v>
       </c>
       <c r="D16" s="310" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="E16" s="97" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="F16" s="97" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.2">
@@ -44768,13 +44753,13 @@
         <v>0.06</v>
       </c>
       <c r="D17" s="315" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="E17" s="92" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="F17" s="92" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.2">
@@ -44788,10 +44773,10 @@
         <v>0.01</v>
       </c>
       <c r="E18" s="97" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="F18" s="97" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.2">
@@ -44802,13 +44787,13 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="D19" s="315" t="s">
+        <v>528</v>
+      </c>
+      <c r="E19" s="92" t="s">
         <v>529</v>
       </c>
-      <c r="E19" s="92" t="s">
-        <v>530</v>
-      </c>
       <c r="F19" s="92" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.2">
@@ -44819,13 +44804,13 @@
         <v>0.06</v>
       </c>
       <c r="D20" s="310" t="s">
+        <v>528</v>
+      </c>
+      <c r="E20" s="97" t="s">
         <v>529</v>
       </c>
-      <c r="E20" s="97" t="s">
-        <v>530</v>
-      </c>
       <c r="F20" s="97" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.2">
@@ -44839,10 +44824,10 @@
         <v>0.02</v>
       </c>
       <c r="E21" s="92" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="F21" s="92" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.2">
@@ -44853,13 +44838,13 @@
         <v>0.06</v>
       </c>
       <c r="D22" s="310" t="s">
+        <v>528</v>
+      </c>
+      <c r="E22" s="97" t="s">
         <v>529</v>
       </c>
-      <c r="E22" s="97" t="s">
-        <v>530</v>
-      </c>
       <c r="F22" s="97" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.2">
@@ -44870,13 +44855,13 @@
         <v>4.4499999999999998E-2</v>
       </c>
       <c r="D23" s="315" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="E23" s="92" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="F23" s="92" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.2">
@@ -44887,13 +44872,13 @@
         <v>5.5E-2</v>
       </c>
       <c r="D24" s="310" t="s">
+        <v>528</v>
+      </c>
+      <c r="E24" s="97" t="s">
         <v>529</v>
       </c>
-      <c r="E24" s="97" t="s">
-        <v>530</v>
-      </c>
       <c r="F24" s="97" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.2">
@@ -44904,13 +44889,13 @@
         <v>0.06</v>
       </c>
       <c r="D25" s="315" t="s">
+        <v>528</v>
+      </c>
+      <c r="E25" s="92" t="s">
         <v>529</v>
       </c>
-      <c r="E25" s="92" t="s">
-        <v>530</v>
-      </c>
       <c r="F25" s="92" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.2">
@@ -44921,13 +44906,13 @@
         <v>6.25E-2</v>
       </c>
       <c r="D26" s="310" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="E26" s="97" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="F26" s="97" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.2">
@@ -44938,13 +44923,13 @@
         <v>0.06</v>
       </c>
       <c r="D27" s="315" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="E27" s="92" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="F27" s="92" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.2">
@@ -44955,13 +44940,13 @@
         <v>6.8750000000000006E-2</v>
       </c>
       <c r="D28" s="310" t="s">
+        <v>528</v>
+      </c>
+      <c r="E28" s="97" t="s">
         <v>529</v>
       </c>
-      <c r="E28" s="97" t="s">
-        <v>530</v>
-      </c>
       <c r="F28" s="97" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.2">
@@ -44972,13 +44957,13 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="D29" s="315" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="E29" s="92" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="F29" s="92" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.2">
@@ -44992,10 +44977,10 @@
         <v>1.225E-2</v>
       </c>
       <c r="E30" s="97" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="F30" s="97" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.2">
@@ -45023,13 +45008,13 @@
         <v>5.5E-2</v>
       </c>
       <c r="D32" s="310" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="E32" s="97" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="F32" s="97" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.2">
@@ -45040,13 +45025,13 @@
         <v>6.8500000000000005E-2</v>
       </c>
       <c r="D33" s="315" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="E33" s="92" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="F33" s="92" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.2">
@@ -45074,13 +45059,13 @@
         <v>6.6250000000000003E-2</v>
       </c>
       <c r="D35" s="315" t="s">
+        <v>528</v>
+      </c>
+      <c r="E35" s="92" t="s">
         <v>529</v>
       </c>
-      <c r="E35" s="92" t="s">
-        <v>530</v>
-      </c>
       <c r="F35" s="92" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.2">
@@ -45091,13 +45076,13 @@
         <v>4.8750000000000002E-2</v>
       </c>
       <c r="D36" s="310" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="E36" s="97" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="F36" s="97" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.2">
@@ -45108,13 +45093,13 @@
         <v>0.04</v>
       </c>
       <c r="D37" s="315" t="s">
+        <v>528</v>
+      </c>
+      <c r="E37" s="92" t="s">
         <v>529</v>
       </c>
-      <c r="E37" s="92" t="s">
-        <v>530</v>
-      </c>
       <c r="F37" s="92" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.2">
@@ -45125,13 +45110,13 @@
         <v>4.7500000000000001E-2</v>
       </c>
       <c r="D38" s="310" t="s">
+        <v>528</v>
+      </c>
+      <c r="E38" s="97" t="s">
         <v>529</v>
       </c>
-      <c r="E38" s="97" t="s">
-        <v>530</v>
-      </c>
       <c r="F38" s="97" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.2">
@@ -45142,13 +45127,13 @@
         <v>0.05</v>
       </c>
       <c r="D39" s="315" t="s">
+        <v>528</v>
+      </c>
+      <c r="E39" s="92" t="s">
         <v>529</v>
       </c>
-      <c r="E39" s="92" t="s">
-        <v>530</v>
-      </c>
       <c r="F39" s="92" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.2">
@@ -45159,13 +45144,13 @@
         <v>5.7500000000000002E-2</v>
       </c>
       <c r="D40" s="310" t="s">
+        <v>528</v>
+      </c>
+      <c r="E40" s="97" t="s">
+        <v>527</v>
+      </c>
+      <c r="F40" s="97" t="s">
         <v>529</v>
-      </c>
-      <c r="E40" s="97" t="s">
-        <v>528</v>
-      </c>
-      <c r="F40" s="97" t="s">
-        <v>530</v>
       </c>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.2">
@@ -45176,13 +45161,13 @@
         <v>4.4999999999999998E-2</v>
       </c>
       <c r="D41" s="315" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="E41" s="92" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="F41" s="92" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.2">
@@ -45210,13 +45195,13 @@
         <v>0.06</v>
       </c>
       <c r="D43" s="315" t="s">
+        <v>528</v>
+      </c>
+      <c r="E43" s="92" t="s">
+        <v>527</v>
+      </c>
+      <c r="F43" s="92" t="s">
         <v>529</v>
-      </c>
-      <c r="E43" s="92" t="s">
-        <v>528</v>
-      </c>
-      <c r="F43" s="92" t="s">
-        <v>530</v>
       </c>
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.2">
@@ -45227,13 +45212,13 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="D44" s="310" t="s">
+        <v>528</v>
+      </c>
+      <c r="E44" s="97" t="s">
         <v>529</v>
       </c>
-      <c r="E44" s="97" t="s">
-        <v>530</v>
-      </c>
       <c r="F44" s="97" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.2">
@@ -45244,13 +45229,13 @@
         <v>0.06</v>
       </c>
       <c r="D45" s="315" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="E45" s="92" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="F45" s="92" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="46" spans="2:6" x14ac:dyDescent="0.2">
@@ -45261,13 +45246,13 @@
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="D46" s="310" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="E46" s="97" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="F46" s="97" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="47" spans="2:6" x14ac:dyDescent="0.2">
@@ -45281,10 +45266,10 @@
         <v>0.04</v>
       </c>
       <c r="E47" s="92" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="F47" s="92" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="48" spans="2:6" x14ac:dyDescent="0.2">
@@ -45295,18 +45280,18 @@
         <v>6.25E-2</v>
       </c>
       <c r="D48" s="310" t="s">
+        <v>528</v>
+      </c>
+      <c r="E48" s="97" t="s">
         <v>529</v>
       </c>
-      <c r="E48" s="97" t="s">
-        <v>530</v>
-      </c>
       <c r="F48" s="97" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B49" s="11" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C49" s="218">
         <v>6.0999999999999999E-2</v>
@@ -45315,10 +45300,10 @@
         <v>0.03</v>
       </c>
       <c r="E49" s="92" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="F49" s="92" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
@@ -45329,13 +45314,13 @@
         <v>0.06</v>
       </c>
       <c r="D50" s="310" t="s">
+        <v>528</v>
+      </c>
+      <c r="E50" s="97" t="s">
+        <v>527</v>
+      </c>
+      <c r="F50" s="97" t="s">
         <v>529</v>
-      </c>
-      <c r="E50" s="97" t="s">
-        <v>528</v>
-      </c>
-      <c r="F50" s="97" t="s">
-        <v>530</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
@@ -45346,13 +45331,13 @@
         <v>5.2999999999999999E-2</v>
       </c>
       <c r="D51" s="315" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="E51" s="92" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="F51" s="92" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
@@ -45363,13 +45348,13 @@
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="D52" s="310" t="s">
+        <v>528</v>
+      </c>
+      <c r="E52" s="97" t="s">
+        <v>527</v>
+      </c>
+      <c r="F52" s="97" t="s">
         <v>529</v>
-      </c>
-      <c r="E52" s="97" t="s">
-        <v>528</v>
-      </c>
-      <c r="F52" s="97" t="s">
-        <v>530</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
@@ -45380,13 +45365,13 @@
         <v>0.06</v>
       </c>
       <c r="D53" s="315" t="s">
+        <v>528</v>
+      </c>
+      <c r="E53" s="92" t="s">
+        <v>527</v>
+      </c>
+      <c r="F53" s="92" t="s">
         <v>529</v>
-      </c>
-      <c r="E53" s="92" t="s">
-        <v>528</v>
-      </c>
-      <c r="F53" s="92" t="s">
-        <v>530</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
@@ -45397,13 +45382,13 @@
         <v>0.05</v>
       </c>
       <c r="D54" s="310" t="s">
+        <v>528</v>
+      </c>
+      <c r="E54" s="97" t="s">
         <v>529</v>
       </c>
-      <c r="E54" s="97" t="s">
-        <v>530</v>
-      </c>
       <c r="F54" s="97" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
@@ -45414,13 +45399,13 @@
         <v>0.04</v>
       </c>
       <c r="D55" s="315" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="E55" s="92" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="F55" s="92" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
@@ -45431,13 +45416,13 @@
         <v>0.06</v>
       </c>
       <c r="D56" s="310" t="s">
+        <v>528</v>
+      </c>
+      <c r="E56" s="97" t="s">
+        <v>531</v>
+      </c>
+      <c r="F56" s="97" t="s">
         <v>529</v>
-      </c>
-      <c r="E56" s="97" t="s">
-        <v>532</v>
-      </c>
-      <c r="F56" s="97" t="s">
-        <v>530</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
@@ -45449,7 +45434,7 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B58" s="14"/>
       <c r="C58" s="157"/>
@@ -45473,7 +45458,7 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" s="451" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B61" s="451"/>
       <c r="C61" s="451"/>
@@ -45533,20 +45518,20 @@
   <sheetData>
     <row r="1" spans="2:8" s="45" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="C1" s="1" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="D1" s="1"/>
     </row>
     <row r="2" spans="2:8" s="91" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C2" s="57" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="D2" s="57"/>
       <c r="E2" s="57"/>
     </row>
     <row r="3" spans="2:8" s="91" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C3" s="57" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="D3" s="57"/>
       <c r="E3" s="57"/>
@@ -46148,7 +46133,7 @@
     </row>
     <row r="60" spans="1:12" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="451" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="B60" s="451"/>
       <c r="C60" s="451"/>
@@ -46181,7 +46166,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" s="4" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
@@ -46230,7 +46215,7 @@
   <sheetData>
     <row r="1" spans="1:15" s="36" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="489" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C1" s="489"/>
       <c r="D1" s="489"/>
@@ -46246,13 +46231,13 @@
       <c r="O1" s="14"/>
     </row>
     <row r="2" spans="1:15" s="322" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="458" t="s">
-        <v>540</v>
-      </c>
-      <c r="B2" s="458"/>
-      <c r="C2" s="458"/>
-      <c r="D2" s="458"/>
-      <c r="E2" s="458"/>
+      <c r="A2" s="459" t="s">
+        <v>539</v>
+      </c>
+      <c r="B2" s="459"/>
+      <c r="C2" s="459"/>
+      <c r="D2" s="459"/>
+      <c r="E2" s="459"/>
       <c r="F2" s="14"/>
       <c r="G2" s="14"/>
       <c r="H2" s="14"/>
@@ -46263,13 +46248,13 @@
       <c r="M2" s="14"/>
     </row>
     <row r="3" spans="1:15" s="322" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A3" s="458" t="s">
-        <v>541</v>
-      </c>
-      <c r="B3" s="458"/>
-      <c r="C3" s="458"/>
-      <c r="D3" s="458"/>
-      <c r="E3" s="458"/>
+      <c r="A3" s="459" t="s">
+        <v>540</v>
+      </c>
+      <c r="B3" s="459"/>
+      <c r="C3" s="459"/>
+      <c r="D3" s="459"/>
+      <c r="E3" s="459"/>
       <c r="F3" s="14"/>
       <c r="G3" s="14"/>
       <c r="H3" s="14"/>
@@ -46280,11 +46265,11 @@
       <c r="M3" s="14"/>
     </row>
     <row r="4" spans="1:15" s="322" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="B4" s="458" t="s">
+      <c r="B4" s="459" t="s">
         <v>61</v>
       </c>
-      <c r="C4" s="458"/>
-      <c r="D4" s="458"/>
+      <c r="C4" s="459"/>
+      <c r="D4" s="459"/>
       <c r="F4" s="14"/>
       <c r="G4" s="14"/>
       <c r="H4" s="14"/>
@@ -46302,7 +46287,7 @@
         <v>3</v>
       </c>
       <c r="C6" s="239" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="D6" s="239" t="s">
         <v>5</v>
@@ -46977,7 +46962,7 @@
         <v>5.7480040603517194E-3</v>
       </c>
       <c r="D58" s="117" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="G58" s="325"/>
       <c r="I58" s="327"/>
@@ -46987,7 +46972,7 @@
     </row>
     <row r="60" spans="1:9" ht="72" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="451" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B60" s="451"/>
       <c r="C60" s="451"/>
@@ -46997,7 +46982,7 @@
     </row>
     <row r="62" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="451" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B62" s="451"/>
       <c r="C62" s="451"/>
@@ -47058,26 +47043,26 @@
   <sheetData>
     <row r="1" spans="1:11" s="45" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B1" s="445" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C1" s="445"/>
       <c r="D1" s="445"/>
     </row>
     <row r="2" spans="1:11" s="78" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="458" t="s">
+      <c r="A2" s="459" t="s">
+        <v>545</v>
+      </c>
+      <c r="B2" s="459"/>
+      <c r="C2" s="459"/>
+      <c r="D2" s="459"/>
+      <c r="E2" s="459"/>
+    </row>
+    <row r="3" spans="1:11" s="207" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="B3" s="459" t="s">
         <v>546</v>
       </c>
-      <c r="B2" s="458"/>
-      <c r="C2" s="458"/>
-      <c r="D2" s="458"/>
-      <c r="E2" s="458"/>
-    </row>
-    <row r="3" spans="1:11" s="207" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="B3" s="458" t="s">
-        <v>547</v>
-      </c>
-      <c r="C3" s="458"/>
-      <c r="D3" s="458"/>
+      <c r="C3" s="459"/>
+      <c r="D3" s="459"/>
       <c r="I3"/>
       <c r="J3"/>
       <c r="K3"/>
@@ -47715,7 +47700,7 @@
         <v>4489.1842153574735</v>
       </c>
       <c r="D58" s="117" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="K58" s="329"/>
     </row>
@@ -47724,7 +47709,7 @@
     </row>
     <row r="60" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="14" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B60" s="14"/>
       <c r="C60" s="14"/>
@@ -47742,7 +47727,7 @@
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62" s="4" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B62" s="14"/>
       <c r="C62" s="14"/>
@@ -47830,20 +47815,20 @@
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="45"/>
       <c r="B1" s="445" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C1" s="445"/>
       <c r="D1" s="445"/>
       <c r="E1" s="45"/>
     </row>
     <row r="2" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="458" t="s">
-        <v>550</v>
-      </c>
-      <c r="B2" s="458"/>
-      <c r="C2" s="458"/>
-      <c r="D2" s="458"/>
-      <c r="E2" s="458"/>
+      <c r="A2" s="459" t="s">
+        <v>549</v>
+      </c>
+      <c r="B2" s="459"/>
+      <c r="C2" s="459"/>
+      <c r="D2" s="459"/>
+      <c r="E2" s="459"/>
     </row>
     <row r="3" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="207"/>
@@ -47864,10 +47849,10 @@
         <v>3</v>
       </c>
       <c r="C5" s="239" t="s">
+        <v>550</v>
+      </c>
+      <c r="D5" s="239" t="s">
         <v>551</v>
-      </c>
-      <c r="D5" s="239" t="s">
-        <v>552</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -47891,14 +47876,14 @@
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="D7" s="183" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="E7" s="74"/>
       <c r="F7" s="16"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C8" s="195">
         <v>2.5999999999999999E-3</v>
@@ -47927,7 +47912,7 @@
         <v>16</v>
       </c>
       <c r="C10" s="421" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="D10" s="419">
         <v>5000</v>
@@ -47950,13 +47935,13 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B12" s="333" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C12" s="422">
         <v>2.7499999999999998E-3</v>
       </c>
       <c r="D12" s="419" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="E12" s="74"/>
       <c r="F12" s="74"/>
@@ -47969,20 +47954,20 @@
         <v>2.5999999999999999E-3</v>
       </c>
       <c r="D13" s="183" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="E13" s="30"/>
       <c r="F13" s="30"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B14" s="333" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C14" s="332">
         <v>1E-3</v>
       </c>
       <c r="D14" s="419" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="E14" s="30"/>
       <c r="F14" s="30"/>
@@ -47992,10 +47977,10 @@
         <v>33</v>
       </c>
       <c r="C15" s="332" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="D15" s="183" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="E15" s="331"/>
       <c r="F15" s="331"/>
@@ -48015,13 +48000,13 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B17" s="14" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C17" s="332">
         <v>1.5E-3</v>
       </c>
       <c r="D17" s="183" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="E17" s="30"/>
       <c r="F17" s="30"/>
@@ -48034,7 +48019,7 @@
         <v>1E-3</v>
       </c>
       <c r="D18" s="423" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="E18" s="30"/>
       <c r="F18" s="30"/>
@@ -48047,7 +48032,7 @@
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="D19" s="419" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="E19" s="330"/>
       <c r="F19" s="330"/>
@@ -48060,7 +48045,7 @@
         <v>2.0000000000000001E-4</v>
       </c>
       <c r="D20" s="423" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="E20" s="74"/>
       <c r="F20" s="74"/>
@@ -48076,37 +48061,37 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="333" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="333" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="333" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="333" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="333" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="333" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="336" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B29" s="82"/>
       <c r="C29" s="82"/>
@@ -48115,7 +48100,7 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
   </sheetData>
@@ -48138,7 +48123,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D67E0F8-8EE3-4D2E-A75F-38366363515F}">
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
@@ -48155,14 +48140,14 @@
   <sheetData>
     <row r="1" spans="1:9" s="45" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B1" s="445" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C1" s="445"/>
       <c r="D1" s="445"/>
     </row>
     <row r="2" spans="1:9" s="91" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="461" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B2" s="461"/>
       <c r="C2" s="461"/>
@@ -48184,10 +48169,10 @@
         <v>3</v>
       </c>
       <c r="C5" s="425" t="s">
+        <v>566</v>
+      </c>
+      <c r="D5" s="338" t="s">
         <v>567</v>
-      </c>
-      <c r="D5" s="338" t="s">
-        <v>568</v>
       </c>
       <c r="E5" s="241"/>
       <c r="F5" s="241"/>
@@ -48203,7 +48188,7 @@
         <v>13610000</v>
       </c>
       <c r="D6" s="339" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -48211,10 +48196,10 @@
         <v>17</v>
       </c>
       <c r="C7" s="383" t="s">
+        <v>569</v>
+      </c>
+      <c r="D7" s="340" t="s">
         <v>570</v>
-      </c>
-      <c r="D7" s="340" t="s">
-        <v>571</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -48222,10 +48207,10 @@
         <v>19</v>
       </c>
       <c r="C8" s="426" t="s">
+        <v>571</v>
+      </c>
+      <c r="D8" s="339" t="s">
         <v>572</v>
-      </c>
-      <c r="D8" s="339" t="s">
-        <v>573</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -48236,7 +48221,7 @@
         <v>6800000</v>
       </c>
       <c r="D9" s="340" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="F9" s="96"/>
     </row>
@@ -48245,10 +48230,10 @@
         <v>164</v>
       </c>
       <c r="C10" s="426" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D10" s="341" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="F10" s="96"/>
     </row>
@@ -48260,7 +48245,7 @@
         <v>2000000</v>
       </c>
       <c r="D11" s="342" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -48268,10 +48253,10 @@
         <v>29</v>
       </c>
       <c r="C12" s="426" t="s">
+        <v>575</v>
+      </c>
+      <c r="D12" s="339" t="s">
         <v>576</v>
-      </c>
-      <c r="D12" s="339" t="s">
-        <v>577</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -48282,7 +48267,7 @@
         <v>6940000</v>
       </c>
       <c r="D13" s="340" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
@@ -48290,10 +48275,10 @@
         <v>43</v>
       </c>
       <c r="C14" s="426" t="s">
+        <v>578</v>
+      </c>
+      <c r="D14" s="343" t="s">
         <v>579</v>
-      </c>
-      <c r="D14" s="343" t="s">
-        <v>580</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
@@ -48304,7 +48289,7 @@
         <v>1774583</v>
       </c>
       <c r="D15" s="340" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
@@ -48312,10 +48297,10 @@
         <v>51</v>
       </c>
       <c r="C16" s="426" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D16" s="344" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
@@ -48323,10 +48308,10 @@
         <v>53</v>
       </c>
       <c r="C17" s="383" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="D17" s="340" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
@@ -48337,7 +48322,7 @@
         <v>4715600</v>
       </c>
       <c r="D18" s="339" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
@@ -48347,7 +48332,7 @@
     </row>
     <row r="20" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B20" s="20"/>
       <c r="C20" s="20"/>
@@ -48356,7 +48341,7 @@
     </row>
     <row r="21" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="455" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B21" s="455"/>
       <c r="C21" s="455"/>
@@ -48372,7 +48357,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
@@ -48413,7 +48398,7 @@
   <sheetData>
     <row r="1" spans="1:7" s="45" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="445" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C1" s="445"/>
       <c r="D1" s="445"/>
@@ -48421,7 +48406,7 @@
     </row>
     <row r="2" spans="1:7" s="207" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="461" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B2" s="461"/>
       <c r="C2" s="461"/>
@@ -48442,61 +48427,61 @@
         <v>3</v>
       </c>
       <c r="C5" s="66" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="D5" s="211" t="s">
+        <v>566</v>
+      </c>
+      <c r="E5" s="427" t="s">
         <v>567</v>
-      </c>
-      <c r="E5" s="427" t="s">
-        <v>568</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B6" s="61" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C6" s="61" t="s">
+        <v>589</v>
+      </c>
+      <c r="D6" s="214" t="s">
         <v>590</v>
       </c>
-      <c r="D6" s="214" t="s">
+      <c r="E6" s="339" t="s">
         <v>591</v>
-      </c>
-      <c r="E6" s="339" t="s">
-        <v>592</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B7" s="61"/>
       <c r="C7" s="61" t="s">
+        <v>592</v>
+      </c>
+      <c r="D7" s="426" t="s">
         <v>593</v>
       </c>
-      <c r="D7" s="426" t="s">
+      <c r="E7" s="214" t="s">
         <v>594</v>
-      </c>
-      <c r="E7" s="214" t="s">
-        <v>595</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B8" s="61"/>
       <c r="C8" s="61" t="s">
+        <v>595</v>
+      </c>
+      <c r="D8" s="426" t="s">
+        <v>593</v>
+      </c>
+      <c r="E8" s="214" t="s">
         <v>596</v>
-      </c>
-      <c r="D8" s="426" t="s">
-        <v>594</v>
-      </c>
-      <c r="E8" s="214" t="s">
-        <v>597</v>
       </c>
       <c r="G8" s="96"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B9" s="61"/>
       <c r="C9" s="61" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="D9" s="426" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="E9" s="339">
         <v>0.03</v>
@@ -48505,10 +48490,10 @@
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B10" s="61"/>
       <c r="C10" s="61" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="D10" s="426" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="E10" s="339">
         <v>0.02</v>
@@ -48517,10 +48502,10 @@
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B11" s="61"/>
       <c r="C11" s="61" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="D11" s="426" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="E11" s="339">
         <v>0.01</v>
@@ -48529,13 +48514,13 @@
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B12" s="61"/>
       <c r="C12" s="61" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="D12" s="426" t="s">
+        <v>590</v>
+      </c>
+      <c r="E12" s="339" t="s">
         <v>591</v>
-      </c>
-      <c r="E12" s="339" t="s">
-        <v>592</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>102</v>
@@ -48546,35 +48531,35 @@
         <v>23</v>
       </c>
       <c r="C13" s="4" t="s">
+        <v>589</v>
+      </c>
+      <c r="D13" s="383" t="s">
         <v>590</v>
       </c>
-      <c r="D13" s="383" t="s">
+      <c r="E13" s="340" t="s">
         <v>591</v>
-      </c>
-      <c r="E13" s="340" t="s">
-        <v>592</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C14" s="4" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D14" s="428" t="s">
+        <v>601</v>
+      </c>
+      <c r="E14" s="90" t="s">
         <v>602</v>
-      </c>
-      <c r="E14" s="90" t="s">
-        <v>603</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C15" s="4" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="D15" s="428" t="s">
+        <v>603</v>
+      </c>
+      <c r="E15" s="90" t="s">
         <v>604</v>
-      </c>
-      <c r="E15" s="90" t="s">
-        <v>605</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -48582,25 +48567,25 @@
         <v>164</v>
       </c>
       <c r="C16" s="61" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="D16" s="214" t="s">
+        <v>590</v>
+      </c>
+      <c r="E16" s="346" t="s">
         <v>591</v>
-      </c>
-      <c r="E16" s="346" t="s">
-        <v>592</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B17" s="61"/>
       <c r="C17" s="61" t="s">
+        <v>606</v>
+      </c>
+      <c r="D17" s="214" t="s">
+        <v>593</v>
+      </c>
+      <c r="E17" s="346" t="s">
         <v>607</v>
-      </c>
-      <c r="D17" s="214" t="s">
-        <v>594</v>
-      </c>
-      <c r="E17" s="346" t="s">
-        <v>608</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
@@ -48608,143 +48593,143 @@
         <v>169</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D18" s="90" t="s">
+        <v>590</v>
+      </c>
+      <c r="E18" s="347" t="s">
         <v>591</v>
-      </c>
-      <c r="E18" s="347" t="s">
-        <v>592</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C19" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="D19" s="383" t="s">
         <v>610</v>
       </c>
-      <c r="D19" s="383" t="s">
+      <c r="E19" s="347" t="s">
         <v>611</v>
-      </c>
-      <c r="E19" s="347" t="s">
-        <v>612</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C20" s="4" t="s">
+        <v>612</v>
+      </c>
+      <c r="D20" s="383" t="s">
         <v>613</v>
       </c>
-      <c r="D20" s="383" t="s">
+      <c r="E20" s="347" t="s">
         <v>614</v>
-      </c>
-      <c r="E20" s="347" t="s">
-        <v>615</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C21" s="4" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="D21" s="428" t="s">
+        <v>615</v>
+      </c>
+      <c r="E21" s="347" t="s">
         <v>616</v>
-      </c>
-      <c r="E21" s="347" t="s">
-        <v>617</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B22" s="61" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="C22" s="61" t="s">
+        <v>589</v>
+      </c>
+      <c r="D22" s="214" t="s">
         <v>590</v>
       </c>
-      <c r="D22" s="214" t="s">
+      <c r="E22" s="339" t="s">
         <v>591</v>
-      </c>
-      <c r="E22" s="339" t="s">
-        <v>592</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B23" s="61"/>
       <c r="C23" s="61" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="D23" s="426" t="s">
+        <v>618</v>
+      </c>
+      <c r="E23" s="339" t="s">
         <v>619</v>
-      </c>
-      <c r="E23" s="339" t="s">
-        <v>620</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B24" s="61"/>
       <c r="C24" s="61" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="D24" s="426" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="E24" s="339" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B25" s="61"/>
       <c r="C25" s="61" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="D25" s="426" t="s">
+        <v>590</v>
+      </c>
+      <c r="E25" s="339" t="s">
         <v>591</v>
-      </c>
-      <c r="E25" s="339" t="s">
-        <v>592</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B26" s="4" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D26" s="383" t="s">
+        <v>590</v>
+      </c>
+      <c r="E26" s="340" t="s">
         <v>591</v>
-      </c>
-      <c r="E26" s="340" t="s">
-        <v>592</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C27" s="4" t="s">
+        <v>622</v>
+      </c>
+      <c r="D27" s="383" t="s">
+        <v>593</v>
+      </c>
+      <c r="E27" s="348" t="s">
         <v>623</v>
-      </c>
-      <c r="D27" s="383" t="s">
-        <v>594</v>
-      </c>
-      <c r="E27" s="348" t="s">
-        <v>624</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C28" s="4" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="D28" s="383" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="E28" s="340" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C29" s="4" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="D29" s="383" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="E29" s="340" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
@@ -48753,37 +48738,37 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
   </sheetData>
@@ -48828,26 +48813,26 @@
   <sheetData>
     <row r="1" spans="1:11" s="45" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="445" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="C1" s="445"/>
       <c r="D1" s="445"/>
     </row>
     <row r="2" spans="1:11" s="91" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="458" t="s">
-        <v>634</v>
-      </c>
-      <c r="B2" s="458"/>
-      <c r="C2" s="458"/>
-      <c r="D2" s="458"/>
-      <c r="E2" s="458"/>
+      <c r="A2" s="459" t="s">
+        <v>633</v>
+      </c>
+      <c r="B2" s="459"/>
+      <c r="C2" s="459"/>
+      <c r="D2" s="459"/>
+      <c r="E2" s="459"/>
     </row>
     <row r="3" spans="1:11" s="91" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="B3" s="458" t="s">
+      <c r="B3" s="459" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="458"/>
-      <c r="D3" s="458"/>
+      <c r="C3" s="459"/>
+      <c r="D3" s="459"/>
     </row>
     <row r="4" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="K4" s="99"/>
@@ -48857,7 +48842,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="240" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="D5" s="240" t="s">
         <v>5</v>
@@ -49532,7 +49517,7 @@
     </row>
     <row r="58" spans="1:11" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="450" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B58" s="450"/>
       <c r="C58" s="450"/>
@@ -49608,7 +49593,7 @@
     </row>
     <row r="2" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="452" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="C2" s="453"/>
       <c r="D2" s="453"/>
@@ -49620,7 +49605,7 @@
     </row>
     <row r="3" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="448" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="C3" s="448"/>
       <c r="D3" s="448"/>
@@ -50970,19 +50955,19 @@
   <sheetData>
     <row r="1" spans="1:7" s="45" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B1" s="445" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="C1" s="445"/>
       <c r="D1" s="445"/>
     </row>
     <row r="2" spans="1:7" s="207" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="458" t="s">
-        <v>638</v>
-      </c>
-      <c r="B2" s="458"/>
-      <c r="C2" s="458"/>
-      <c r="D2" s="458"/>
-      <c r="E2" s="458"/>
+      <c r="A2" s="459" t="s">
+        <v>637</v>
+      </c>
+      <c r="B2" s="459"/>
+      <c r="C2" s="459"/>
+      <c r="D2" s="459"/>
+      <c r="E2" s="459"/>
     </row>
     <row r="3" spans="1:7" s="207" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="B3" s="461" t="s">
@@ -50996,7 +50981,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="240" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="D5" s="240" t="s">
         <v>5</v>
@@ -51673,7 +51658,7 @@
         <v>29713.868652359055</v>
       </c>
       <c r="D57" s="92" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="E57" s="8"/>
       <c r="F57" s="278"/>
@@ -51685,7 +51670,7 @@
     </row>
     <row r="59" spans="1:7" ht="72.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="481" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B59" s="481"/>
       <c r="C59" s="481"/>
@@ -51748,24 +51733,24 @@
   <sheetData>
     <row r="1" spans="1:11" s="45" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B1" s="445" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="C1" s="445"/>
       <c r="D1" s="445"/>
     </row>
     <row r="2" spans="1:11" s="78" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="458" t="s">
-        <v>641</v>
-      </c>
-      <c r="B2" s="458"/>
-      <c r="C2" s="458"/>
-      <c r="D2" s="458"/>
-      <c r="E2" s="458"/>
+      <c r="A2" s="459" t="s">
+        <v>640</v>
+      </c>
+      <c r="B2" s="459"/>
+      <c r="C2" s="459"/>
+      <c r="D2" s="459"/>
+      <c r="E2" s="459"/>
     </row>
     <row r="3" spans="1:11" s="207" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="B3" s="57"/>
       <c r="C3" s="57" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="D3" s="57"/>
       <c r="I3"/>
@@ -51780,7 +51765,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="240" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D5" s="240" t="s">
         <v>5</v>
@@ -52349,12 +52334,12 @@
         <v>1.0720000000000001</v>
       </c>
       <c r="D56" s="351" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="4" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
@@ -52365,7 +52350,7 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" s="455" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B61" s="455"/>
       <c r="C61" s="455"/>
@@ -52417,19 +52402,19 @@
   <sheetData>
     <row r="1" spans="1:9" s="45" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B1" s="445" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="C1" s="445"/>
       <c r="D1" s="445"/>
     </row>
     <row r="2" spans="1:9" s="207" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="458" t="s">
-        <v>648</v>
-      </c>
-      <c r="B2" s="458"/>
-      <c r="C2" s="458"/>
-      <c r="D2" s="458"/>
-      <c r="E2" s="458"/>
+      <c r="A2" s="459" t="s">
+        <v>647</v>
+      </c>
+      <c r="B2" s="459"/>
+      <c r="C2" s="459"/>
+      <c r="D2" s="459"/>
+      <c r="E2" s="459"/>
     </row>
     <row r="3" spans="1:9" s="207" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="B3" s="461" t="s">
@@ -52443,7 +52428,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="352" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="D5" s="352" t="s">
         <v>5</v>
@@ -53173,7 +53158,7 @@
         <v>95521</v>
       </c>
       <c r="D57" s="178" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="F57" s="354"/>
       <c r="G57" s="69"/>
@@ -53187,7 +53172,7 @@
     </row>
     <row r="59" spans="1:8" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="481" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="B59" s="481"/>
       <c r="C59" s="481"/>
@@ -53207,7 +53192,7 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" s="4" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="H61" s="4" t="s">
         <v>102</v>
@@ -53274,26 +53259,26 @@
   <sheetData>
     <row r="1" spans="1:12" s="45" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B1" s="445" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="C1" s="445"/>
       <c r="D1" s="445"/>
     </row>
     <row r="2" spans="1:12" s="91" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="458" t="s">
+      <c r="A2" s="459" t="s">
+        <v>652</v>
+      </c>
+      <c r="B2" s="459"/>
+      <c r="C2" s="459"/>
+      <c r="D2" s="459"/>
+      <c r="E2" s="459"/>
+    </row>
+    <row r="3" spans="1:12" s="91" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="B3" s="459" t="s">
         <v>653</v>
       </c>
-      <c r="B2" s="458"/>
-      <c r="C2" s="458"/>
-      <c r="D2" s="458"/>
-      <c r="E2" s="458"/>
-    </row>
-    <row r="3" spans="1:12" s="91" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="B3" s="458" t="s">
-        <v>654</v>
-      </c>
-      <c r="C3" s="458"/>
-      <c r="D3" s="458"/>
+      <c r="C3" s="459"/>
+      <c r="D3" s="459"/>
     </row>
     <row r="4" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="B4" s="36"/>
@@ -54156,7 +54141,7 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" s="451" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B59" s="451"/>
       <c r="C59" s="451"/>
@@ -54174,7 +54159,7 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" s="4" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="C61" s="363"/>
       <c r="D61" s="41"/>
@@ -55664,7 +55649,7 @@
         <v>13274.770034910813</v>
       </c>
       <c r="D57" s="187" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
@@ -55686,51 +55671,51 @@
       <c r="G59" s="4"/>
     </row>
     <row r="60" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="459" t="s">
+      <c r="A60" s="457" t="s">
         <v>84</v>
       </c>
-      <c r="B60" s="459"/>
-      <c r="C60" s="459"/>
-      <c r="D60" s="459"/>
-      <c r="E60" s="459"/>
-      <c r="F60" s="459"/>
-      <c r="G60" s="459"/>
+      <c r="B60" s="457"/>
+      <c r="C60" s="457"/>
+      <c r="D60" s="457"/>
+      <c r="E60" s="457"/>
+      <c r="F60" s="457"/>
+      <c r="G60" s="457"/>
     </row>
     <row r="61" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="459"/>
-      <c r="B61" s="459"/>
-      <c r="C61" s="459"/>
-      <c r="D61" s="459"/>
-      <c r="E61" s="459"/>
-      <c r="F61" s="459"/>
-      <c r="G61" s="459"/>
+      <c r="A61" s="457"/>
+      <c r="B61" s="457"/>
+      <c r="C61" s="457"/>
+      <c r="D61" s="457"/>
+      <c r="E61" s="457"/>
+      <c r="F61" s="457"/>
+      <c r="G61" s="457"/>
     </row>
     <row r="62" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="459"/>
-      <c r="B62" s="459"/>
-      <c r="C62" s="459"/>
-      <c r="D62" s="459"/>
-      <c r="E62" s="459"/>
-      <c r="F62" s="459"/>
-      <c r="G62" s="459"/>
+      <c r="A62" s="457"/>
+      <c r="B62" s="457"/>
+      <c r="C62" s="457"/>
+      <c r="D62" s="457"/>
+      <c r="E62" s="457"/>
+      <c r="F62" s="457"/>
+      <c r="G62" s="457"/>
     </row>
     <row r="63" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="459"/>
-      <c r="B63" s="459"/>
-      <c r="C63" s="459"/>
-      <c r="D63" s="459"/>
-      <c r="E63" s="459"/>
-      <c r="F63" s="459"/>
-      <c r="G63" s="459"/>
+      <c r="A63" s="457"/>
+      <c r="B63" s="457"/>
+      <c r="C63" s="457"/>
+      <c r="D63" s="457"/>
+      <c r="E63" s="457"/>
+      <c r="F63" s="457"/>
+      <c r="G63" s="457"/>
     </row>
     <row r="64" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="459"/>
-      <c r="B64" s="459"/>
-      <c r="C64" s="459"/>
-      <c r="D64" s="459"/>
-      <c r="E64" s="459"/>
-      <c r="F64" s="459"/>
-      <c r="G64" s="459"/>
+      <c r="A64" s="457"/>
+      <c r="B64" s="457"/>
+      <c r="C64" s="457"/>
+      <c r="D64" s="457"/>
+      <c r="E64" s="457"/>
+      <c r="F64" s="457"/>
+      <c r="G64" s="457"/>
     </row>
     <row r="66" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A66" s="4" t="s">
@@ -56462,7 +56447,7 @@
         <v>25151.371730749426</v>
       </c>
       <c r="D57" s="50" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="58" spans="1:9" ht="0.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -56477,62 +56462,62 @@
       <c r="G58" s="4"/>
     </row>
     <row r="59" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="457" t="s">
+      <c r="A59" s="458" t="s">
         <v>88</v>
       </c>
-      <c r="B59" s="457"/>
-      <c r="C59" s="457"/>
-      <c r="D59" s="457"/>
-      <c r="E59" s="457"/>
-      <c r="F59" s="457"/>
-      <c r="G59" s="457"/>
+      <c r="B59" s="458"/>
+      <c r="C59" s="458"/>
+      <c r="D59" s="458"/>
+      <c r="E59" s="458"/>
+      <c r="F59" s="458"/>
+      <c r="G59" s="458"/>
     </row>
     <row r="60" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="457"/>
-      <c r="B60" s="457"/>
-      <c r="C60" s="457"/>
-      <c r="D60" s="457"/>
-      <c r="E60" s="457"/>
-      <c r="F60" s="457"/>
-      <c r="G60" s="457"/>
+      <c r="A60" s="458"/>
+      <c r="B60" s="458"/>
+      <c r="C60" s="458"/>
+      <c r="D60" s="458"/>
+      <c r="E60" s="458"/>
+      <c r="F60" s="458"/>
+      <c r="G60" s="458"/>
       <c r="H60" s="54"/>
       <c r="I60" s="55"/>
     </row>
     <row r="61" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="457"/>
-      <c r="B61" s="457"/>
-      <c r="C61" s="457"/>
-      <c r="D61" s="457"/>
-      <c r="E61" s="457"/>
-      <c r="F61" s="457"/>
-      <c r="G61" s="457"/>
+      <c r="A61" s="458"/>
+      <c r="B61" s="458"/>
+      <c r="C61" s="458"/>
+      <c r="D61" s="458"/>
+      <c r="E61" s="458"/>
+      <c r="F61" s="458"/>
+      <c r="G61" s="458"/>
     </row>
     <row r="62" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="457"/>
-      <c r="B62" s="457"/>
-      <c r="C62" s="457"/>
-      <c r="D62" s="457"/>
-      <c r="E62" s="457"/>
-      <c r="F62" s="457"/>
-      <c r="G62" s="457"/>
+      <c r="A62" s="458"/>
+      <c r="B62" s="458"/>
+      <c r="C62" s="458"/>
+      <c r="D62" s="458"/>
+      <c r="E62" s="458"/>
+      <c r="F62" s="458"/>
+      <c r="G62" s="458"/>
     </row>
     <row r="63" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="457"/>
-      <c r="B63" s="457"/>
-      <c r="C63" s="457"/>
-      <c r="D63" s="457"/>
-      <c r="E63" s="457"/>
-      <c r="F63" s="457"/>
-      <c r="G63" s="457"/>
+      <c r="A63" s="458"/>
+      <c r="B63" s="458"/>
+      <c r="C63" s="458"/>
+      <c r="D63" s="458"/>
+      <c r="E63" s="458"/>
+      <c r="F63" s="458"/>
+      <c r="G63" s="458"/>
     </row>
     <row r="64" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="457"/>
-      <c r="B64" s="457"/>
-      <c r="C64" s="457"/>
-      <c r="D64" s="457"/>
-      <c r="E64" s="457"/>
-      <c r="F64" s="457"/>
-      <c r="G64" s="457"/>
+      <c r="A64" s="458"/>
+      <c r="B64" s="458"/>
+      <c r="C64" s="458"/>
+      <c r="D64" s="458"/>
+      <c r="E64" s="458"/>
+      <c r="F64" s="458"/>
+      <c r="G64" s="458"/>
     </row>
     <row r="65" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A65" s="4"/>
@@ -56635,14 +56620,14 @@
       <c r="G2" s="446"/>
     </row>
     <row r="3" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="B3" s="458" t="s">
+      <c r="B3" s="459" t="s">
         <v>91</v>
       </c>
-      <c r="C3" s="458"/>
-      <c r="D3" s="458"/>
-      <c r="E3" s="458"/>
-      <c r="F3" s="458"/>
-      <c r="G3" s="458"/>
+      <c r="C3" s="459"/>
+      <c r="D3" s="459"/>
+      <c r="E3" s="459"/>
+      <c r="F3" s="459"/>
+      <c r="G3" s="459"/>
     </row>
     <row r="4" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="B4" s="448" t="s">
@@ -57790,14 +57775,14 @@
       <c r="H59" s="4"/>
     </row>
     <row r="60" spans="1:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="459" t="s">
+      <c r="A60" s="457" t="s">
         <v>97</v>
       </c>
-      <c r="B60" s="459"/>
-      <c r="C60" s="459"/>
-      <c r="D60" s="459"/>
-      <c r="E60" s="459"/>
-      <c r="F60" s="459"/>
+      <c r="B60" s="457"/>
+      <c r="C60" s="457"/>
+      <c r="D60" s="457"/>
+      <c r="E60" s="457"/>
+      <c r="F60" s="457"/>
       <c r="G60" s="4"/>
       <c r="H60" s="4"/>
     </row>

--- a/src/data/facts-and-figures.xlsx
+++ b/src/data/facts-and-figures.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ColbyPastre\Local Sites\tax-foundation-development-site\app\public\wp-content\themes\facts-and-figures-web\src\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BB51C11-77E3-4382-A433-8C9D15D76316}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{085B84DE-03F6-41E8-BA95-322DA5B3E529}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" firstSheet="18" activeTab="22" xr2:uid="{E1FAFE64-C91F-4801-9C00-8657359E225A}"/>
   </bookViews>
@@ -96,7 +96,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3076" uniqueCount="707">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3076" uniqueCount="711">
   <si>
     <t>Table 1.</t>
   </si>
@@ -2329,7 +2329,19 @@
     <t>(f) Nebraska's corporation occupation tax is due every other year. The maximum tax is $23,990 for domestic (Nebraska) corporations and $30,000 for foreign (out-of-state) corporations.</t>
   </si>
   <si>
-    <t>Note: Excise taxes are special taxes on specific goods or activities—such as gasoline, tobacco, or gambling—rather than general tax bases such as income or consumption. Excise taxes are often included in the final price of products and services, and are hidden to consumers. In order to determine the the average tax rate on a gallon of fuel, rates may include any of the following: excise taxes, environmental fees, storage tank taxes, other fees or taxes, and general sales tax. In states where gasoline is subject to the general sales tax, or where the fuel tax is based on the average sale price, the average rate is sensitive to changes in the price of gasoline. States that fully or partially apply general sales taxes to gasoline are California, Connecticut, Illinois, Indiana, Michigan, and New York. D.C.’s rank does not affect states’ ranks, but the figure in parentheses indicates where it would rank if included.</t>
+    <t>State Rank</t>
+  </si>
+  <si>
+    <t>Combined Rank</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Gas Tax Rank</t>
+  </si>
+  <si>
+    <t>Total Rank</t>
+  </si>
+  <si>
+    <t>Note: Excise taxes are special taxes on specific goods or activities—such as gasoline, tobacco, or gambling—rather than general tax bases such as income or consumption. Excise taxes are often included in the final price of products and services, and are hidden to consumers. In order to determine the average tax rate on a gallon of fuel, rates may include any of the following: excise taxes, environmental fees, storage tank taxes, other fees or taxes, and general sales tax. In states where gasoline is subject to the general sales tax, or where the fuel tax is based on the average sale price, the average rate is sensitive to changes in the price of gasoline. States that fully or partially apply general sales taxes to gasoline are California, Connecticut, Illinois, Indiana, Michigan, and New York. D.C.’s rank does not affect states’ ranks, but the figure in parentheses indicates where it would rank if included.</t>
   </si>
 </sst>
 </file>
@@ -31506,9 +31518,9 @@
   <dimension ref="A1:P69"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="F17" sqref="F17"/>
-      <selection pane="bottomLeft" activeCell="F17" sqref="F17"/>
+      <selection pane="bottomLeft" activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31565,7 +31577,7 @@
         <v>279</v>
       </c>
       <c r="C5" s="223" t="s">
-        <v>5</v>
+        <v>706</v>
       </c>
       <c r="D5" s="223" t="s">
         <v>280</v>
@@ -31574,7 +31586,7 @@
         <v>281</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>5</v>
+        <v>707</v>
       </c>
       <c r="G5" s="4"/>
       <c r="H5" s="199"/>
@@ -36582,7 +36594,7 @@
   <dimension ref="A1:R64"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A38" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J62" sqref="J62"/>
+      <selection activeCell="I62" sqref="I62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -37576,7 +37588,7 @@
     </row>
     <row r="62" spans="1:11" ht="159.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="463" t="s">
-        <v>706</v>
+        <v>710</v>
       </c>
       <c r="B62" s="463"/>
       <c r="C62" s="463"/>
@@ -37609,8 +37621,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD00CA32-C333-45F9-9935-4504CB2E91D4}">
   <dimension ref="A1:J69"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E66" sqref="E66"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -37673,7 +37685,7 @@
         <v>338</v>
       </c>
       <c r="C6" s="411" t="s">
-        <v>5</v>
+        <v>708</v>
       </c>
       <c r="D6" s="411" t="s">
         <v>339</v>
@@ -37682,7 +37694,7 @@
         <v>340</v>
       </c>
       <c r="F6" s="411" t="s">
-        <v>5</v>
+        <v>709</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">

--- a/src/data/facts-and-figures.xlsx
+++ b/src/data/facts-and-figures.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ColbyPastre\Local Sites\tax-foundation-development-site\app\public\wp-content\themes\facts-and-figures-web\src\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\wp-content\themes\facts-and-figures-web\src\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{085B84DE-03F6-41E8-BA95-322DA5B3E529}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{384F97CB-098F-4B00-8B02-6AFF5F27664A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" firstSheet="18" activeTab="22" xr2:uid="{E1FAFE64-C91F-4801-9C00-8657359E225A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" firstSheet="18" activeTab="43" xr2:uid="{E1FAFE64-C91F-4801-9C00-8657359E225A}"/>
   </bookViews>
   <sheets>
     <sheet name="Table of Contents" sheetId="44" r:id="rId1"/>
@@ -56,6 +56,7 @@
     <sheet name="40" sheetId="40" r:id="rId41"/>
     <sheet name="41" sheetId="41" r:id="rId42"/>
     <sheet name="42" sheetId="42" r:id="rId43"/>
+    <sheet name="43" sheetId="45" r:id="rId44"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -96,7 +97,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3076" uniqueCount="711">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3088" uniqueCount="719">
   <si>
     <t>Table 1.</t>
   </si>
@@ -2342,6 +2343,30 @@
   </si>
   <si>
     <t>Note: Excise taxes are special taxes on specific goods or activities—such as gasoline, tobacco, or gambling—rather than general tax bases such as income or consumption. Excise taxes are often included in the final price of products and services, and are hidden to consumers. In order to determine the average tax rate on a gallon of fuel, rates may include any of the following: excise taxes, environmental fees, storage tank taxes, other fees or taxes, and general sales tax. In states where gasoline is subject to the general sales tax, or where the fuel tax is based on the average sale price, the average rate is sensitive to changes in the price of gasoline. States that fully or partially apply general sales taxes to gasoline are California, Connecticut, Illinois, Indiana, Michigan, and New York. D.C.’s rank does not affect states’ ranks, but the figure in parentheses indicates where it would rank if included.</t>
+  </si>
+  <si>
+    <t>Table 43.</t>
+  </si>
+  <si>
+    <t>Tax and Transfer Distributions</t>
+  </si>
+  <si>
+    <t>Household Effective Tax Incidence Rates</t>
+  </si>
+  <si>
+    <t>Quintile</t>
+  </si>
+  <si>
+    <t>State &amp; Local</t>
+  </si>
+  <si>
+    <t>Household Effective Rates of Taxes and Transfers</t>
+  </si>
+  <si>
+    <t>Sources: Bureau of Economic Analysis; Bureau of Labor Statistics; Social Security Administration; Centers for Medicare and Medicaid Services; U.S. Department of Veterans Affairs; Tax Foundation analysis.</t>
+  </si>
+  <si>
+    <t>Fiscal Year 2019</t>
   </si>
 </sst>
 </file>
@@ -2721,7 +2746,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="490">
+  <cellXfs count="500">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3981,6 +4006,24 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -36593,7 +36636,7 @@
   </sheetPr>
   <dimension ref="A1:R64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A38" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I62" sqref="I62"/>
     </sheetView>
   </sheetViews>
@@ -41058,17 +41101,17 @@
     <row r="83" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A62:D62"/>
+    <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A64:D64"/>
+    <mergeCell ref="A65:D65"/>
+    <mergeCell ref="A67:D71"/>
     <mergeCell ref="A61:D61"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="A4:D4"/>
     <mergeCell ref="A60:D60"/>
-    <mergeCell ref="A62:D62"/>
-    <mergeCell ref="A63:D63"/>
-    <mergeCell ref="A64:D64"/>
-    <mergeCell ref="A65:D65"/>
-    <mergeCell ref="A67:D71"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="62" orientation="portrait" r:id="rId1"/>
@@ -54188,6 +54231,231 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="59" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{371A8277-E137-401F-9B22-659C36EA3D95}">
+  <dimension ref="A1:E20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="491"/>
+      <c r="B1" s="445" t="s">
+        <v>711</v>
+      </c>
+      <c r="C1" s="445"/>
+      <c r="D1" s="445"/>
+      <c r="E1" s="491"/>
+    </row>
+    <row r="2" spans="1:5" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2" s="459" t="s">
+        <v>712</v>
+      </c>
+      <c r="B2" s="459"/>
+      <c r="C2" s="459"/>
+      <c r="D2" s="459"/>
+      <c r="E2" s="459"/>
+    </row>
+    <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.25">
+      <c r="A3" s="492"/>
+      <c r="B3" s="459" t="s">
+        <v>718</v>
+      </c>
+      <c r="C3" s="459"/>
+      <c r="D3" s="459"/>
+      <c r="E3" s="492"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="493"/>
+      <c r="B4" s="494"/>
+      <c r="C4" s="494"/>
+      <c r="D4" s="494"/>
+      <c r="E4" s="493"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="495" t="s">
+        <v>713</v>
+      </c>
+      <c r="B5" s="490"/>
+      <c r="C5" s="490"/>
+      <c r="D5" s="490"/>
+      <c r="E5" s="490"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="495" t="s">
+        <v>714</v>
+      </c>
+      <c r="B6" s="496" t="s">
+        <v>328</v>
+      </c>
+      <c r="C6" s="496" t="s">
+        <v>329</v>
+      </c>
+      <c r="D6" s="496" t="s">
+        <v>715</v>
+      </c>
+      <c r="E6" s="490"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="490">
+        <v>1</v>
+      </c>
+      <c r="B7" s="498">
+        <v>0.10100000000000001</v>
+      </c>
+      <c r="C7" s="498">
+        <v>2.3E-2</v>
+      </c>
+      <c r="D7" s="498">
+        <v>7.8E-2</v>
+      </c>
+      <c r="E7" s="490"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="490">
+        <v>2</v>
+      </c>
+      <c r="B8" s="498">
+        <v>0.13900000000000001</v>
+      </c>
+      <c r="C8" s="498">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="D8" s="498">
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="E8" s="490"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="490">
+        <v>3</v>
+      </c>
+      <c r="B9" s="498">
+        <v>0.224</v>
+      </c>
+      <c r="C9" s="498">
+        <v>0.125</v>
+      </c>
+      <c r="D9" s="498">
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="E9" s="490"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="490">
+        <v>4</v>
+      </c>
+      <c r="B10" s="498">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="C10" s="498">
+        <v>0.17899999999999999</v>
+      </c>
+      <c r="D10" s="498">
+        <v>0.10100000000000001</v>
+      </c>
+      <c r="E10" s="490"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="490">
+        <v>5</v>
+      </c>
+      <c r="B11" s="498">
+        <v>0.41399999999999998</v>
+      </c>
+      <c r="C11" s="498">
+        <v>0.29299999999999998</v>
+      </c>
+      <c r="D11" s="498">
+        <v>0.121</v>
+      </c>
+      <c r="E11" s="490"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="495" t="s">
+        <v>716</v>
+      </c>
+      <c r="B12" s="490"/>
+      <c r="C12" s="490"/>
+      <c r="D12" s="490"/>
+      <c r="E12" s="490"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="495" t="s">
+        <v>714</v>
+      </c>
+      <c r="B13" s="496" t="s">
+        <v>134</v>
+      </c>
+      <c r="C13" s="490"/>
+      <c r="D13" s="490"/>
+      <c r="E13" s="490"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="490">
+        <v>1</v>
+      </c>
+      <c r="B14" s="498">
+        <v>-1.27</v>
+      </c>
+      <c r="C14" s="499"/>
+      <c r="D14" s="499"/>
+      <c r="E14" s="497"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="490">
+        <v>2</v>
+      </c>
+      <c r="B15" s="498">
+        <v>-0.31</v>
+      </c>
+      <c r="C15" s="490"/>
+      <c r="D15" s="490"/>
+      <c r="E15" s="490"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="490">
+        <v>3</v>
+      </c>
+      <c r="B16" s="498">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="490">
+        <v>4</v>
+      </c>
+      <c r="B17" s="498">
+        <v>0.159</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="490">
+        <v>5</v>
+      </c>
+      <c r="B18" s="498">
+        <v>0.307</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="490" t="s">
+        <v>717</v>
+      </c>
+      <c r="B20" s="490"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="B3:D3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 

--- a/src/data/facts-and-figures.xlsx
+++ b/src/data/facts-and-figures.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\wp-content\themes\facts-and-figures-web\src\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ColbyPastre\Local Sites\tax-foundation-development-site\app\public\wp-content\themes\facts-and-figures-web\src\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C46A8FF-68EE-4894-82D9-3922BEB77444}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4EB0C3C-F32D-4F56-A64D-1EA7527E1277}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7650" yWindow="2760" windowWidth="18930" windowHeight="15690" firstSheet="28" activeTab="42" xr2:uid="{E1FAFE64-C91F-4801-9C00-8657359E225A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" firstSheet="3" activeTab="3" xr2:uid="{E1FAFE64-C91F-4801-9C00-8657359E225A}"/>
   </bookViews>
   <sheets>
     <sheet name="Table of Contents" sheetId="44" r:id="rId1"/>
@@ -4400,9 +4400,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -4440,7 +4440,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -4546,7 +4546,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -4688,7 +4688,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -41105,17 +41105,17 @@
     <row r="83" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A62:D62"/>
-    <mergeCell ref="A63:D63"/>
-    <mergeCell ref="A64:D64"/>
-    <mergeCell ref="A65:D65"/>
-    <mergeCell ref="A67:D71"/>
     <mergeCell ref="A61:D61"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="A4:D4"/>
     <mergeCell ref="A60:D60"/>
+    <mergeCell ref="A62:D62"/>
+    <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A64:D64"/>
+    <mergeCell ref="A65:D65"/>
+    <mergeCell ref="A67:D71"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="62" orientation="portrait" r:id="rId1"/>
@@ -49620,10 +49620,10 @@
   </sheetPr>
   <dimension ref="A1:J67"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="F36" sqref="F36"/>
-      <selection pane="bottomLeft" activeCell="F36" sqref="F36"/>
+      <selection pane="bottomLeft" activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -49721,7 +49721,7 @@
         <v>7</v>
       </c>
       <c r="C7" s="11">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D7" s="11">
         <v>19</v>
@@ -49759,7 +49759,7 @@
         <v>48</v>
       </c>
       <c r="H8" s="14">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="2:10" ht="14.25" x14ac:dyDescent="0.2">
@@ -49791,7 +49791,7 @@
         <v>10</v>
       </c>
       <c r="C10" s="14">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D10" s="14">
         <v>28</v>
@@ -49864,7 +49864,7 @@
         <v>47</v>
       </c>
       <c r="D13" s="11">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E13" s="11">
         <v>46</v>
@@ -49884,7 +49884,7 @@
         <v>14</v>
       </c>
       <c r="C14" s="14">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D14" s="14">
         <v>50</v>
@@ -49945,7 +49945,7 @@
         <v>34</v>
       </c>
       <c r="H16" s="14">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="2:8" ht="14.25" x14ac:dyDescent="0.2">
@@ -49968,7 +49968,7 @@
         <v>41</v>
       </c>
       <c r="H17" s="11">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="2:8" ht="14.25" x14ac:dyDescent="0.2">
@@ -49999,7 +49999,7 @@
         <v>19</v>
       </c>
       <c r="C19" s="11">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D19" s="11">
         <v>43</v>
@@ -50051,7 +50051,7 @@
         <v>29</v>
       </c>
       <c r="E21" s="11">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F21" s="11">
         <v>15</v>
@@ -50074,7 +50074,7 @@
         <v>21</v>
       </c>
       <c r="E22" s="14">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F22" s="14">
         <v>29</v>
@@ -50114,13 +50114,13 @@
         <v>24</v>
       </c>
       <c r="C24" s="14">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D24" s="14">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E24" s="14">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F24" s="14">
         <v>48</v>
@@ -50143,7 +50143,7 @@
         <v>35</v>
       </c>
       <c r="E25" s="11">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F25" s="11">
         <v>8</v>
@@ -50163,7 +50163,7 @@
         <v>45</v>
       </c>
       <c r="D26" s="14">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E26" s="14">
         <v>45</v>
@@ -50206,7 +50206,7 @@
         <v>28</v>
       </c>
       <c r="C28" s="14">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D28" s="14">
         <v>20</v>
@@ -50221,7 +50221,7 @@
         <v>7</v>
       </c>
       <c r="H28" s="14">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="29" spans="2:8" ht="14.25" x14ac:dyDescent="0.2">
@@ -50252,13 +50252,13 @@
         <v>30</v>
       </c>
       <c r="C30" s="14">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D30" s="14">
         <v>8</v>
       </c>
       <c r="E30" s="14">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="F30" s="14">
         <v>25</v>
@@ -50275,13 +50275,13 @@
         <v>31</v>
       </c>
       <c r="C31" s="11">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D31" s="11">
         <v>3</v>
       </c>
       <c r="E31" s="11">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F31" s="11">
         <v>30</v>
@@ -50321,10 +50321,10 @@
         <v>33</v>
       </c>
       <c r="C33" s="11">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D33" s="11">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E33" s="11">
         <v>32</v>
@@ -50413,7 +50413,7 @@
         <v>37</v>
       </c>
       <c r="C37" s="11">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D37" s="11">
         <v>13</v>
@@ -50488,7 +50488,7 @@
         <v>10</v>
       </c>
       <c r="E40" s="14">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F40" s="14">
         <v>32</v>
@@ -50534,7 +50534,7 @@
         <v>4</v>
       </c>
       <c r="E42" s="14">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F42" s="14">
         <v>38</v>
@@ -50574,13 +50574,13 @@
         <v>44</v>
       </c>
       <c r="C44" s="14">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D44" s="14">
         <v>41</v>
       </c>
       <c r="E44" s="14">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F44" s="14">
         <v>16</v>
@@ -50626,7 +50626,7 @@
         <v>6</v>
       </c>
       <c r="E46" s="14">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F46" s="14">
         <v>33</v>
@@ -50658,7 +50658,7 @@
         <v>35</v>
       </c>
       <c r="H47" s="11">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="48" spans="2:8" ht="14.25" x14ac:dyDescent="0.2">
@@ -50773,7 +50773,7 @@
         <v>36</v>
       </c>
       <c r="H52" s="14">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
@@ -50804,13 +50804,13 @@
         <v>54</v>
       </c>
       <c r="C54" s="14">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D54" s="14">
         <v>17</v>
       </c>
       <c r="E54" s="14">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F54" s="14">
         <v>24</v>
@@ -50830,7 +50830,7 @@
         <v>24</v>
       </c>
       <c r="D55" s="11">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E55" s="11">
         <v>38</v>
@@ -53297,7 +53297,7 @@
   </sheetPr>
   <dimension ref="A1:L66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
